--- a/EJBComponents/ImageProcessingBenchmark_5/stats/ExcelSheets/PowerConsumption.xlsx
+++ b/EJBComponents/ImageProcessingBenchmark_5/stats/ExcelSheets/PowerConsumption.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="-120" windowWidth="22080" windowHeight="14805"/>
+    <workbookView xWindow="3795" yWindow="300" windowWidth="11730" windowHeight="14625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -171,8 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -237,8 +236,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37810445442176072"/>
-          <c:y val="7.1905501450283005E-3"/>
+          <c:x val="0.42369612592706496"/>
+          <c:y val="5.7524401160226404E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -260,7 +259,7 @@
           <c:x val="8.4339984925763417E-2"/>
           <c:y val="5.273289031240392E-2"/>
           <c:w val="0.89118525893932821"/>
-          <c:h val="0.89091414539745339"/>
+          <c:h val="0.87509493507839109"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -338,31 +337,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>49.202399999999997</c:v>
+                  <c:v>46.762800000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.398400000000009</c:v>
+                  <c:v>55.176000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.191999999999993</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.47</c:v>
+                  <c:v>46.694400000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.196400000000004</c:v>
+                  <c:v>49.16340000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.196400000000004</c:v>
+                  <c:v>49.256999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.313400000000009</c:v>
+                  <c:v>49.210200000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43.243200000000002</c:v>
+                  <c:v>49.327199999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.406999999999996</c:v>
+                  <c:v>49.327199999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -441,31 +440,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>16.596</c:v>
+                  <c:v>46.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.947999999999997</c:v>
+                  <c:v>31.68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.172800000000001</c:v>
+                  <c:v>22.794</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.68</c:v>
+                  <c:v>21.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.79</c:v>
+                  <c:v>19.348800000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.894400000000001</c:v>
+                  <c:v>18.617999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.967999999999998</c:v>
+                  <c:v>18.72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.668400000000002</c:v>
+                  <c:v>16.5564</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.688000000000001</c:v>
+                  <c:v>18.108000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -508,31 +507,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>33.369</c:v>
+                  <c:v>37.720199999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.991199999999999</c:v>
+                  <c:v>35.456400000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.55</c:v>
+                  <c:v>36.630000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.99</c:v>
+                  <c:v>25.589999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.05</c:v>
+                  <c:v>31.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.08</c:v>
+                  <c:v>31.83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.05</c:v>
+                  <c:v>31.89</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.05</c:v>
+                  <c:v>31.83</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.140000000000004</c:v>
+                  <c:v>31.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -575,31 +574,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>18.228000000000002</c:v>
+                  <c:v>47.839199999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.615999999999998</c:v>
+                  <c:v>24.768000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.668400000000002</c:v>
+                  <c:v>14.839199999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.639199999999999</c:v>
+                  <c:v>16.629600000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.219199999999999</c:v>
+                  <c:v>12.247199999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.59</c:v>
+                  <c:v>9.48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.318400000000002</c:v>
+                  <c:v>11.606399999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.53</c:v>
+                  <c:v>15.713999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.74</c:v>
+                  <c:v>12.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,31 +640,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>28.730999999999998</c:v>
+                  <c:v>39.893999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.5456</c:v>
+                  <c:v>36.453600000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.523399999999999</c:v>
+                  <c:v>28.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.488</c:v>
+                  <c:v>20.638200000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.928000000000001</c:v>
+                  <c:v>32.076000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>32.436</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.856000000000002</c:v>
+                  <c:v>30.635999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>31.716000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>31.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -708,31 +707,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>19.715999999999998</c:v>
+                  <c:v>47.913600000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.398</c:v>
+                  <c:v>23.942400000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.5328</c:v>
+                  <c:v>14.952000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.3032</c:v>
+                  <c:v>16.5564</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.53</c:v>
+                  <c:v>13.77</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.375</c:v>
+                  <c:v>14.882999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.4816</c:v>
+                  <c:v>12.948</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.989000000000001</c:v>
+                  <c:v>13.86</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.95</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -774,31 +773,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>25.999200000000002</c:v>
+                  <c:v>45.167399999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.26</c:v>
+                  <c:v>30.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.936799999999998</c:v>
+                  <c:v>21.129600000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.282</c:v>
+                  <c:v>28.669800000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.898599999999998</c:v>
+                  <c:v>27.69</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.624000000000002</c:v>
+                  <c:v>30.283199999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.753600000000002</c:v>
+                  <c:v>28.339200000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.009799999999998</c:v>
+                  <c:v>30.002999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.447800000000001</c:v>
+                  <c:v>29.127000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,31 +840,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>18.823199999999996</c:v>
+                  <c:v>47.913600000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.047999999999998</c:v>
+                  <c:v>28.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.32</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.9696</c:v>
+                  <c:v>12.8688</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.68</c:v>
+                  <c:v>16.235999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.916</c:v>
+                  <c:v>13.176000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.198400000000001</c:v>
+                  <c:v>14.894400000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.0848</c:v>
+                  <c:v>14.6508</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.170800000000002</c:v>
+                  <c:v>12.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,31 +907,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>24.6708</c:v>
+                  <c:v>43.480800000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.091999999999999</c:v>
+                  <c:v>25.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.131799999999998</c:v>
+                  <c:v>21.129600000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.537599999999998</c:v>
+                  <c:v>28.243800000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.624000000000002</c:v>
+                  <c:v>28.857599999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.055999999999997</c:v>
+                  <c:v>28.209600000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.667200000000001</c:v>
+                  <c:v>29.721600000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.753600000000002</c:v>
+                  <c:v>27.993600000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.883199999999999</c:v>
+                  <c:v>29.375999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -975,31 +974,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>17.484000000000005</c:v>
+                  <c:v>48.025199999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.940000000000001</c:v>
+                  <c:v>25.308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.5024</c:v>
+                  <c:v>17.052000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.087999999999997</c:v>
+                  <c:v>13.036799999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.0204</c:v>
+                  <c:v>13.478400000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.506399999999999</c:v>
+                  <c:v>11.826000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.1296</c:v>
+                  <c:v>11.592000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.761199999999999</c:v>
+                  <c:v>13.932</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.929999999999998</c:v>
+                  <c:v>8.5500000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,31 +1041,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>25.325999999999997</c:v>
+                  <c:v>43.938600000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.492799999999999</c:v>
+                  <c:v>31.225799999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.088000000000001</c:v>
+                  <c:v>19.655999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.889600000000002</c:v>
+                  <c:v>21.513600000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.624000000000002</c:v>
+                  <c:v>28.123199999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.624000000000002</c:v>
+                  <c:v>27.864000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.055999999999997</c:v>
+                  <c:v>27.345599999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.84</c:v>
+                  <c:v>29.073600000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.009799999999998</c:v>
+                  <c:v>23.038799999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,31 +1108,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>17.019000000000002</c:v>
+                  <c:v>47.140800000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.9872</c:v>
+                  <c:v>26.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.6928</c:v>
+                  <c:v>15.220800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.627199999999998</c:v>
+                  <c:v>16.038</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.167999999999997</c:v>
+                  <c:v>12.7296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.275199999999998</c:v>
+                  <c:v>13.122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.668400000000002</c:v>
+                  <c:v>14.029199999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.961600000000001</c:v>
+                  <c:v>13.876799999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.830399999999999</c:v>
+                  <c:v>13.478400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,31 +1175,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>25.325999999999997</c:v>
+                  <c:v>43.938600000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.782</c:v>
+                  <c:v>30.786000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.217599999999997</c:v>
+                  <c:v>21.297599999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.624000000000002</c:v>
+                  <c:v>23.457599999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.667200000000001</c:v>
+                  <c:v>29.203199999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.878399999999999</c:v>
+                  <c:v>29.127000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.753600000000002</c:v>
+                  <c:v>26.913600000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.276</c:v>
+                  <c:v>27.341999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.495000000000001</c:v>
+                  <c:v>23.855999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1243,31 +1242,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>17.495999999999999</c:v>
+                  <c:v>46.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.759999999999998</c:v>
+                  <c:v>24.768000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.540800000000001</c:v>
+                  <c:v>12.8688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.206</c:v>
+                  <c:v>13.932</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.085199999999999</c:v>
+                  <c:v>14.839199999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.409199999999998</c:v>
+                  <c:v>14.58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.219199999999999</c:v>
+                  <c:v>14.742000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.959000000000001</c:v>
+                  <c:v>12.903</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.048400000000001</c:v>
+                  <c:v>9.3960000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,31 +1309,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>25.088399999999996</c:v>
+                  <c:v>45.332999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.89</c:v>
+                  <c:v>30.786000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.001600000000003</c:v>
+                  <c:v>19.137599999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.649600000000003</c:v>
+                  <c:v>24.192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.685599999999997</c:v>
+                  <c:v>26.752800000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.84</c:v>
+                  <c:v>29.16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.513600000000004</c:v>
+                  <c:v>27.561600000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.753600000000002</c:v>
+                  <c:v>27.9072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.969600000000003</c:v>
+                  <c:v>23.544000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1377,31 +1376,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>19.440000000000001</c:v>
+                  <c:v>46.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.8414</c:v>
+                  <c:v>24.284400000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.96</c:v>
+                  <c:v>11.664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.923200000000001</c:v>
+                  <c:v>9.9791999999999987</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.113200000000001</c:v>
+                  <c:v>13.3812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.639199999999999</c:v>
+                  <c:v>12.948</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.228800000000001</c:v>
+                  <c:v>14.151000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.169600000000001</c:v>
+                  <c:v>11.9496</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.344400000000002</c:v>
+                  <c:v>11.2104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,11 +1417,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111018752"/>
-        <c:axId val="111021056"/>
+        <c:axId val="111804800"/>
+        <c:axId val="111807104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111018752"/>
+        <c:axId val="111804800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1489,7 +1488,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.4031272876314449"/>
+              <c:x val="0.43478819730929541"/>
               <c:y val="0.96759938104650245"/>
             </c:manualLayout>
           </c:layout>
@@ -1523,7 +1522,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1538,7 +1537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111021056"/>
+        <c:crossAx val="111807104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1546,10 +1545,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111021056"/>
+        <c:axId val="111807104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
+          <c:max val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1641,7 +1640,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1656,7 +1655,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111018752"/>
+        <c:crossAx val="111804800"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1783,7 +1782,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ" sz="1600" b="1"/>
-              <a:t>Overall Runtimes</a:t>
+              <a:t>Overall Runtimes - Local Mode</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1792,8 +1791,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.43502994641231235"/>
-          <c:y val="5.7524401160226404E-3"/>
+          <c:x val="0.34965942892860374"/>
+          <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1812,10 +1811,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.3991947720487103E-2"/>
+          <c:x val="7.7779568321636183E-2"/>
           <c:y val="4.5542340167375628E-2"/>
-          <c:w val="0.90153313243064492"/>
-          <c:h val="0.89091414539745339"/>
+          <c:w val="0.89774547552708184"/>
+          <c:h val="0.8865998153104363"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1892,31 +1891,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>21.58</c:v>
+                  <c:v>20.51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.28</c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.579999999999998</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.75</c:v>
+                  <c:v>20.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.46</c:v>
+                  <c:v>21.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.46</c:v>
+                  <c:v>21.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.510000000000002</c:v>
+                  <c:v>21.03</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.48</c:v>
+                  <c:v>21.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.55</c:v>
+                  <c:v>21.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1958,31 +1957,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.35</c:v>
+                  <c:v>12.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.48</c:v>
+                  <c:v>12.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.85</c:v>
+                  <c:v>12.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.33</c:v>
+                  <c:v>8.5299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.35</c:v>
+                  <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.36</c:v>
+                  <c:v>10.61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.35</c:v>
+                  <c:v>10.63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.35</c:v>
+                  <c:v>10.61</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3800000000000008</c:v>
+                  <c:v>10.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,31 +2023,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7.85</c:v>
+                  <c:v>10.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.16</c:v>
+                  <c:v>9.9600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.21</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2</c:v>
+                  <c:v>5.83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.48</c:v>
+                  <c:v>8.91</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5</c:v>
+                  <c:v>9.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.46</c:v>
+                  <c:v>8.51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5</c:v>
+                  <c:v>8.81</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5</c:v>
+                  <c:v>8.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2090,31 +2089,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.28</c:v>
+                  <c:v>10.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3</c:v>
+                  <c:v>7.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.68</c:v>
+                  <c:v>4.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7</c:v>
+                  <c:v>6.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.61</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7</c:v>
+                  <c:v>7.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.73</c:v>
+                  <c:v>6.56</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.71</c:v>
+                  <c:v>6.85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.81</c:v>
+                  <c:v>6.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2157,31 +2156,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.23</c:v>
+                  <c:v>10.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.26</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.43</c:v>
+                  <c:v>4.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.76</c:v>
+                  <c:v>6.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7</c:v>
+                  <c:v>6.68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8</c:v>
+                  <c:v>6.53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.71</c:v>
+                  <c:v>6.88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.73</c:v>
+                  <c:v>6.48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.76</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2224,31 +2223,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.3</c:v>
+                  <c:v>10.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.28</c:v>
+                  <c:v>7.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6500000000000004</c:v>
+                  <c:v>4.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.53</c:v>
+                  <c:v>4.9800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7</c:v>
+                  <c:v>6.51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7</c:v>
+                  <c:v>6.45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8</c:v>
+                  <c:v>6.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.75</c:v>
+                  <c:v>6.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.71</c:v>
+                  <c:v>5.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2291,31 +2290,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.3</c:v>
+                  <c:v>10.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.71</c:v>
+                  <c:v>7.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.68</c:v>
+                  <c:v>4.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7</c:v>
+                  <c:v>5.43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.71</c:v>
+                  <c:v>6.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.68</c:v>
+                  <c:v>6.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.73</c:v>
+                  <c:v>6.23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.78</c:v>
+                  <c:v>6.51</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.75</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2358,31 +2357,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.06</c:v>
+                  <c:v>10.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>5.45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.63</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.78</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.56</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.9800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.73</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2399,11 +2398,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111096576"/>
-        <c:axId val="111098880"/>
+        <c:axId val="112144768"/>
+        <c:axId val="112147072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111096576"/>
+        <c:axId val="112144768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,7 +2469,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.4031272876314449"/>
+              <c:x val="0.39555197093314387"/>
               <c:y val="0.96759938104650245"/>
             </c:manualLayout>
           </c:layout>
@@ -2504,7 +2503,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2519,7 +2518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111098880"/>
+        <c:crossAx val="112147072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2527,10 +2526,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111098880"/>
+        <c:axId val="112147072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="22.5"/>
+          <c:max val="25"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2622,7 +2621,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2637,7 +2636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111096576"/>
+        <c:crossAx val="112144768"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.5"/>
@@ -3948,11 +3947,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111967232"/>
-        <c:axId val="111977984"/>
+        <c:axId val="112228992"/>
+        <c:axId val="112239744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111967232"/>
+        <c:axId val="112228992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4068,7 +4067,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111977984"/>
+        <c:crossAx val="112239744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4076,7 +4075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111977984"/>
+        <c:axId val="112239744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="74"/>
@@ -4186,7 +4185,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111967232"/>
+        <c:crossAx val="112228992"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -4313,8 +4312,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ" sz="1600" b="1"/>
-              <a:t>Overall Runtimes</a:t>
+              <a:t>Overall Runtimes - </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1600" b="1" baseline="0"/>
+              <a:t>Remote Mode</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ" sz="1600" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4322,8 +4326,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.43502994641231235"/>
-          <c:y val="5.7524401160226404E-3"/>
+          <c:x val="0.36308010331191704"/>
+          <c:y val="4.3143300870169803E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4342,10 +4346,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6466454696891895E-2"/>
+          <c:x val="8.5302402838950742E-2"/>
           <c:y val="4.5542340167375628E-2"/>
-          <c:w val="0.89905862545424009"/>
-          <c:h val="0.89091414539745339"/>
+          <c:w val="0.89022263984490091"/>
+          <c:h val="0.88228548522341932"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4422,31 +4426,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.6100000000000003</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.43</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3600000000000003</c:v>
+                  <c:v>6.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8</c:v>
+                  <c:v>5.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.25</c:v>
+                  <c:v>5.56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.28</c:v>
+                  <c:v>5.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.88</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.91</c:v>
+                  <c:v>5.1100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.08</c:v>
+                  <c:v>5.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4488,31 +4492,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.9000000000000004</c:v>
+                  <c:v>12.86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0599999999999996</c:v>
+                  <c:v>6.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.91</c:v>
+                  <c:v>4.58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.41</c:v>
+                  <c:v>5.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.53</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.93</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4554,31 +4558,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.3</c:v>
+                  <c:v>12.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.85</c:v>
+                  <c:v>6.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.73</c:v>
+                  <c:v>4.45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.18</c:v>
+                  <c:v>5.1100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.25</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>4.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.68</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4620,31 +4624,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.0599999999999996</c:v>
+                  <c:v>12.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.18</c:v>
+                  <c:v>7.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.86</c:v>
+                  <c:v>3.83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8</c:v>
+                  <c:v>4.51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.31</c:v>
+                  <c:v>3.66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.08</c:v>
+                  <c:v>4.28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.76</c:v>
+                  <c:v>4.21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.21</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4687,31 +4691,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.7</c:v>
+                  <c:v>12.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1500000000000004</c:v>
+                  <c:v>7.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3.88</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.71</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.86</c:v>
+                  <c:v>3.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.61</c:v>
+                  <c:v>3.45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.63</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3099999999999996</c:v>
+                  <c:v>2.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4754,31 +4758,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.6500000000000004</c:v>
+                  <c:v>12.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.76</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.48</c:v>
+                  <c:v>4.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.28</c:v>
+                  <c:v>4.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.48</c:v>
+                  <c:v>4.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.91</c:v>
+                  <c:v>4.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.56</c:v>
+                  <c:v>4.13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.96</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4821,31 +4825,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.8600000000000003</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>6.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.03</c:v>
+                  <c:v>3.83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.15</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.73</c:v>
+                  <c:v>4.58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.83</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.08</c:v>
+                  <c:v>4.55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2300000000000004</c:v>
+                  <c:v>3.91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.41</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4888,31 +4892,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.4</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.91</c:v>
+                  <c:v>6.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.68</c:v>
+                  <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.43</c:v>
+                  <c:v>4.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.41</c:v>
+                  <c:v>4.1500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.16</c:v>
+                  <c:v>4.45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.58</c:v>
+                  <c:v>3.83</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.81</c:v>
+                  <c:v>3.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4929,11 +4933,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111844352"/>
-        <c:axId val="111851008"/>
+        <c:axId val="111897216"/>
+        <c:axId val="111912064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111844352"/>
+        <c:axId val="111897216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5034,7 +5038,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5049,7 +5053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111851008"/>
+        <c:crossAx val="111912064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5057,10 +5061,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111851008"/>
+        <c:axId val="111912064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="22.5"/>
+          <c:max val="25"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5152,7 +5156,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5167,7 +5171,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111844352"/>
+        <c:crossAx val="111897216"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.5"/>
@@ -5403,31 +5407,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>21.58</c:v>
+                  <c:v>20.51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.28</c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.579999999999998</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.75</c:v>
+                  <c:v>20.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.46</c:v>
+                  <c:v>21.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.46</c:v>
+                  <c:v>21.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.510000000000002</c:v>
+                  <c:v>21.03</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.48</c:v>
+                  <c:v>21.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.55</c:v>
+                  <c:v>21.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5505,31 +5509,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.6100000000000003</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.43</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3600000000000003</c:v>
+                  <c:v>6.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8</c:v>
+                  <c:v>5.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.25</c:v>
+                  <c:v>5.56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.28</c:v>
+                  <c:v>5.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.88</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.91</c:v>
+                  <c:v>5.1100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.08</c:v>
+                  <c:v>5.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5571,31 +5575,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.35</c:v>
+                  <c:v>12.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.48</c:v>
+                  <c:v>12.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.85</c:v>
+                  <c:v>12.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.33</c:v>
+                  <c:v>8.5299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.35</c:v>
+                  <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.36</c:v>
+                  <c:v>10.61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.35</c:v>
+                  <c:v>10.63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.35</c:v>
+                  <c:v>10.61</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3800000000000008</c:v>
+                  <c:v>10.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5637,31 +5641,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.9000000000000004</c:v>
+                  <c:v>12.86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0599999999999996</c:v>
+                  <c:v>6.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.91</c:v>
+                  <c:v>4.58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.41</c:v>
+                  <c:v>5.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.53</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.93</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5703,31 +5707,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7.85</c:v>
+                  <c:v>10.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.16</c:v>
+                  <c:v>9.9600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.21</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2</c:v>
+                  <c:v>5.83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.48</c:v>
+                  <c:v>8.91</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5</c:v>
+                  <c:v>9.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.46</c:v>
+                  <c:v>8.51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5</c:v>
+                  <c:v>8.81</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5</c:v>
+                  <c:v>8.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5769,31 +5773,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.3</c:v>
+                  <c:v>12.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.85</c:v>
+                  <c:v>6.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.73</c:v>
+                  <c:v>4.45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.18</c:v>
+                  <c:v>5.1100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.25</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>4.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.68</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5835,31 +5839,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.28</c:v>
+                  <c:v>10.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3</c:v>
+                  <c:v>7.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.68</c:v>
+                  <c:v>4.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7</c:v>
+                  <c:v>6.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.61</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7</c:v>
+                  <c:v>7.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.73</c:v>
+                  <c:v>6.56</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.71</c:v>
+                  <c:v>6.85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.81</c:v>
+                  <c:v>6.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5901,31 +5905,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.0599999999999996</c:v>
+                  <c:v>12.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.18</c:v>
+                  <c:v>7.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.86</c:v>
+                  <c:v>3.83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8</c:v>
+                  <c:v>4.51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.31</c:v>
+                  <c:v>3.66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.08</c:v>
+                  <c:v>4.28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.76</c:v>
+                  <c:v>4.21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.21</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5968,31 +5972,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.23</c:v>
+                  <c:v>10.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.26</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.43</c:v>
+                  <c:v>4.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.76</c:v>
+                  <c:v>6.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7</c:v>
+                  <c:v>6.68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8</c:v>
+                  <c:v>6.53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.71</c:v>
+                  <c:v>6.88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.73</c:v>
+                  <c:v>6.48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.76</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6035,31 +6039,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.7</c:v>
+                  <c:v>12.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1500000000000004</c:v>
+                  <c:v>7.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3.88</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.71</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.86</c:v>
+                  <c:v>3.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.61</c:v>
+                  <c:v>3.45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.63</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3099999999999996</c:v>
+                  <c:v>2.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6102,31 +6106,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.3</c:v>
+                  <c:v>10.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.28</c:v>
+                  <c:v>7.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6500000000000004</c:v>
+                  <c:v>4.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.53</c:v>
+                  <c:v>4.9800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7</c:v>
+                  <c:v>6.51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7</c:v>
+                  <c:v>6.45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8</c:v>
+                  <c:v>6.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.75</c:v>
+                  <c:v>6.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.71</c:v>
+                  <c:v>5.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6169,31 +6173,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.6500000000000004</c:v>
+                  <c:v>12.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.76</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.48</c:v>
+                  <c:v>4.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.28</c:v>
+                  <c:v>4.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.48</c:v>
+                  <c:v>4.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.91</c:v>
+                  <c:v>4.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.56</c:v>
+                  <c:v>4.13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.96</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6236,31 +6240,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.3</c:v>
+                  <c:v>10.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.71</c:v>
+                  <c:v>7.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.68</c:v>
+                  <c:v>4.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7</c:v>
+                  <c:v>5.43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.71</c:v>
+                  <c:v>6.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.68</c:v>
+                  <c:v>6.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.73</c:v>
+                  <c:v>6.23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.78</c:v>
+                  <c:v>6.51</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.75</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6303,31 +6307,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.8600000000000003</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>6.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.03</c:v>
+                  <c:v>3.83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.15</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.73</c:v>
+                  <c:v>4.58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.83</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.08</c:v>
+                  <c:v>4.55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2300000000000004</c:v>
+                  <c:v>3.91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.41</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6370,31 +6374,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.06</c:v>
+                  <c:v>10.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>5.45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.63</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.78</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.56</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.9800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.73</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6437,31 +6441,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.4</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.91</c:v>
+                  <c:v>6.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.68</c:v>
+                  <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.43</c:v>
+                  <c:v>4.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.41</c:v>
+                  <c:v>4.1500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.16</c:v>
+                  <c:v>4.45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.58</c:v>
+                  <c:v>3.83</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.81</c:v>
+                  <c:v>3.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6478,11 +6482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111891968"/>
-        <c:axId val="111902720"/>
+        <c:axId val="112077440"/>
+        <c:axId val="112084096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111891968"/>
+        <c:axId val="112077440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6598,7 +6602,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111902720"/>
+        <c:crossAx val="112084096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6606,7 +6610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111902720"/>
+        <c:axId val="112084096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22.5"/>
@@ -6716,7 +6720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111891968"/>
+        <c:crossAx val="112077440"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.5"/>
@@ -6740,6 +6744,1974 @@
           <c:y val="4.3060751089764676E-2"/>
           <c:w val="0.4741814774638437"/>
           <c:h val="0.14956616070483245"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-NZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1600" b="1"/>
+              <a:t>Energy Consumption - Local Mode</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35229672948609114"/>
+          <c:y val="4.3143300870169803E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4339984925763417E-2"/>
+          <c:y val="5.273289031240392E-2"/>
+          <c:w val="0.89118525893932821"/>
+          <c:h val="0.87509493507839109"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OneThread_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Z$3:$AH$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$4:$AH$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>46.762800000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.176000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.694400000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.16340000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.256999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.210200000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.327199999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.327199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TwoThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$9:$AH$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>37.720199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.456400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ThreeThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$14:$AH$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>39.893999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.453600000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.638200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.076000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.436</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.635999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.716000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>FourThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$19:$AH$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>45.167399999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.129600000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.669800000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.283199999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.339200000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.002999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.127000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>FiveThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$24:$AH$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>43.480800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.129600000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.243800000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.857599999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.209600000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.721600000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.993600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.375999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>SixThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$29:$AH$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>43.938600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.225799999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.655999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.513600000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.123199999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.864000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.345599999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.073600000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.038799999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>SevenThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$34:$AH$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>43.938600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.786000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.297599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.457599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.203199999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.127000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.913600000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.341999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.855999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>EightThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$39:$AH$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>45.332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.786000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.137599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.752800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.561600000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.9072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.544000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="40440960"/>
+        <c:axId val="40443264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="40440960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+                  <a:t> of Sub-Images</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43478819730929541"/>
+              <c:y val="0.96759938104650245"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40443264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40443264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+                  <a:t>Energy Consumption (Kilo Watts)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.4825864740423675E-4"/>
+              <c:y val="0.34054955053399744"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40440960"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.5083007475523551"/>
+          <c:y val="5.0251301234792968E-2"/>
+          <c:w val="0.4741814774638437"/>
+          <c:h val="0.13949939050179283"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-NZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1600" b="1"/>
+              <a:t>Energy Consumption - Remote Mode</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3585073469147223"/>
+          <c:y val="5.7524401160226404E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4339984925763417E-2"/>
+          <c:y val="5.273289031240392E-2"/>
+          <c:w val="0.89118525893932821"/>
+          <c:h val="0.87509493507839109"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OneThread_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Z$3:$AH$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$5:$AH$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>46.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.348800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.617999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.5564</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.108000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TwoThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$10:$AH$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>47.839199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.768000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.839199999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.629600000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.247199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.606399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.713999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ThreeThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$15:$AH$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>47.913600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.942400000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.952000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.5564</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.882999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.948</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>FourThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$20:$AH$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>47.913600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.8688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.235999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.176000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.894400000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.6508</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>FiveThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$25:$AH$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>48.025199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.052000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.036799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.478400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.826000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.592000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.932</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5500000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>SixThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$30:$AH$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>47.140800000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.220800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.7296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.029199999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.876799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.478400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>SevenThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$35:$AH$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>46.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.768000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.8688</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.932</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.839199999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.742000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3960000000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>EightThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$40:$AH$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>46.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.284400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9791999999999987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.3812</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.151000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.9496</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.2104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="41704064"/>
+        <c:axId val="41718912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="41704064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+                  <a:t> of Sub-Images</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43478819730929541"/>
+              <c:y val="0.96759938104650245"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41718912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="41718912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+                  <a:t>Energy Consumption (Kilo Watts)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.4825864740423675E-4"/>
+              <c:y val="0.34054955053399744"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41704064"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.5083007475523551"/>
+          <c:y val="5.0251301234792968E-2"/>
+          <c:w val="0.4741814774638437"/>
+          <c:h val="0.13949939050179283"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8080,6 +10052,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>600136</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>333436</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8348,8 +10384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI34" sqref="AI34"/>
+    <sheetView tabSelected="1" topLeftCell="K84" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U146" sqref="U146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8359,55 +10395,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="1"/>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="Y1" s="12" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="Y1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AK1" s="12" t="s">
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AK1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -8440,7 +10476,7 @@
       <c r="J3" s="2">
         <v>16</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="2">
@@ -8566,70 +10602,70 @@
         <v>1</v>
       </c>
       <c r="N4" s="10">
-        <v>21.58</v>
+        <v>20.51</v>
       </c>
       <c r="O4" s="10">
-        <v>17.28</v>
+        <v>24.2</v>
       </c>
       <c r="P4" s="10">
-        <v>17.579999999999998</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="10">
-        <v>17.75</v>
+        <v>20.48</v>
       </c>
       <c r="R4" s="10">
-        <v>18.46</v>
+        <v>21.01</v>
       </c>
       <c r="S4" s="10">
-        <v>18.46</v>
+        <v>21.05</v>
       </c>
       <c r="T4" s="10">
-        <v>18.510000000000002</v>
+        <v>21.03</v>
       </c>
       <c r="U4" s="10">
-        <v>18.48</v>
+        <v>21.08</v>
       </c>
       <c r="V4" s="10">
-        <v>18.55</v>
+        <v>21.08</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z4" s="6">
         <f xml:space="preserve"> (B4 * N4 * 60) / 1000</f>
-        <v>49.202399999999997</v>
+        <v>46.762800000000006</v>
       </c>
       <c r="AA4" s="6">
         <f t="shared" ref="AA4:AH4" si="0" xml:space="preserve"> (C4 * O4 * 60) / 1000</f>
-        <v>39.398400000000009</v>
+        <v>55.176000000000002</v>
       </c>
       <c r="AB4" s="6">
         <f t="shared" si="0"/>
-        <v>42.191999999999993</v>
+        <v>60</v>
       </c>
       <c r="AC4" s="6">
         <f t="shared" si="0"/>
-        <v>40.47</v>
+        <v>46.694400000000002</v>
       </c>
       <c r="AD4" s="6">
         <f t="shared" si="0"/>
-        <v>43.196400000000004</v>
+        <v>49.16340000000001</v>
       </c>
       <c r="AE4" s="6">
         <f t="shared" si="0"/>
-        <v>43.196400000000004</v>
+        <v>49.256999999999998</v>
       </c>
       <c r="AF4" s="6">
         <f t="shared" si="0"/>
-        <v>43.313400000000009</v>
+        <v>49.210200000000007</v>
       </c>
       <c r="AG4" s="6">
         <f t="shared" si="0"/>
-        <v>43.243200000000002</v>
+        <v>49.327199999999998</v>
       </c>
       <c r="AH4" s="6">
         <f t="shared" si="0"/>
-        <v>43.406999999999996</v>
+        <v>49.327199999999998</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>1</v>
@@ -8640,35 +10676,35 @@
       </c>
       <c r="AM4" s="6">
         <f t="shared" ref="AM4:AS4" si="1">$N6/O6</f>
-        <v>1.2488425925925923</v>
+        <v>0.84752066115702485</v>
       </c>
       <c r="AN4" s="6">
         <f t="shared" si="1"/>
-        <v>1.2275312855517635</v>
+        <v>0.82040000000000002</v>
       </c>
       <c r="AO4" s="6">
         <f t="shared" si="1"/>
-        <v>1.2157746478873239</v>
+        <v>1.00146484375</v>
       </c>
       <c r="AP4" s="6">
         <f t="shared" si="1"/>
-        <v>1.169014084507042</v>
+        <v>0.97620180866254169</v>
       </c>
       <c r="AQ4" s="6">
         <f t="shared" si="1"/>
-        <v>1.169014084507042</v>
+        <v>0.97434679334916874</v>
       </c>
       <c r="AR4" s="6">
         <f t="shared" si="1"/>
-        <v>1.1658562938951915</v>
+        <v>0.9752734189253448</v>
       </c>
       <c r="AS4" s="6">
         <f t="shared" si="1"/>
-        <v>1.1677489177489175</v>
+        <v>0.97296015180265671</v>
       </c>
       <c r="AT4" s="6">
         <f>$N6/V6</f>
-        <v>1.163342318059299</v>
+        <v>0.97296015180265671</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
@@ -8705,71 +10741,71 @@
       <c r="M5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="11">
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="O5" s="11">
-        <v>4.43</v>
-      </c>
-      <c r="P5" s="11">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>3.8</v>
-      </c>
-      <c r="R5" s="11">
-        <v>4.25</v>
-      </c>
-      <c r="S5" s="11">
-        <v>4.28</v>
-      </c>
-      <c r="T5" s="11">
-        <v>3.88</v>
-      </c>
-      <c r="U5" s="11">
-        <v>3.91</v>
-      </c>
-      <c r="V5" s="11">
-        <v>4.08</v>
+      <c r="N5" s="10">
+        <v>12.9</v>
+      </c>
+      <c r="O5" s="10">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="P5" s="10">
+        <v>6.55</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>5.85</v>
+      </c>
+      <c r="R5" s="10">
+        <v>5.56</v>
+      </c>
+      <c r="S5" s="10">
+        <v>5.35</v>
+      </c>
+      <c r="T5" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="U5" s="10">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="V5" s="10">
+        <v>5.03</v>
       </c>
       <c r="Y5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z5" s="6">
         <f xml:space="preserve"> (B5 * N5 * 60) / 1000</f>
-        <v>16.596</v>
+        <v>46.44</v>
       </c>
       <c r="AA5" s="6">
         <f t="shared" ref="AA5" si="2" xml:space="preserve"> (C5 * O5 * 60) / 1000</f>
-        <v>15.947999999999997</v>
+        <v>31.68</v>
       </c>
       <c r="AB5" s="6">
         <f t="shared" ref="AB5" si="3" xml:space="preserve"> (D5 * P5 * 60) / 1000</f>
-        <v>15.172800000000001</v>
+        <v>22.794</v>
       </c>
       <c r="AC5" s="6">
         <f t="shared" ref="AC5" si="4" xml:space="preserve"> (E5 * Q5 * 60) / 1000</f>
-        <v>13.68</v>
+        <v>21.06</v>
       </c>
       <c r="AD5" s="6">
         <f t="shared" ref="AD5" si="5" xml:space="preserve"> (F5 * R5 * 60) / 1000</f>
-        <v>14.79</v>
+        <v>19.348800000000001</v>
       </c>
       <c r="AE5" s="6">
         <f t="shared" ref="AE5" si="6" xml:space="preserve"> (G5 * S5 * 60) / 1000</f>
-        <v>14.894400000000001</v>
+        <v>18.617999999999995</v>
       </c>
       <c r="AF5" s="6">
         <f t="shared" ref="AF5" si="7" xml:space="preserve"> (H5 * T5 * 60) / 1000</f>
-        <v>13.967999999999998</v>
+        <v>18.72</v>
       </c>
       <c r="AG5" s="6">
         <f t="shared" ref="AG5" si="8" xml:space="preserve"> (I5 * U5 * 60) / 1000</f>
-        <v>12.668400000000002</v>
+        <v>16.5564</v>
       </c>
       <c r="AH5" s="6">
         <f t="shared" ref="AH5" si="9" xml:space="preserve"> (J5 * V5 * 60) / 1000</f>
-        <v>14.688000000000001</v>
+        <v>18.108000000000001</v>
       </c>
       <c r="AK5" s="4" t="s">
         <v>2</v>
@@ -8780,64 +10816,64 @@
       </c>
       <c r="AM5" s="6">
         <f t="shared" ref="AM5" si="10">$N7/O7</f>
-        <v>1.0406320541760723</v>
+        <v>1.4659090909090908</v>
       </c>
       <c r="AN5" s="6">
         <f t="shared" ref="AN5" si="11">$N7/P7</f>
-        <v>1.0573394495412844</v>
+        <v>1.969465648854962</v>
       </c>
       <c r="AO5" s="6">
         <f t="shared" ref="AO5" si="12">$N7/Q7</f>
-        <v>1.2131578947368422</v>
+        <v>2.2051282051282053</v>
       </c>
       <c r="AP5" s="6">
         <f t="shared" ref="AP5" si="13">$N7/R7</f>
-        <v>1.0847058823529412</v>
+        <v>2.3201438848920866</v>
       </c>
       <c r="AQ5" s="6">
         <f>$N7/S7</f>
-        <v>1.0771028037383177</v>
+        <v>2.4112149532710281</v>
       </c>
       <c r="AR5" s="6">
         <f t="shared" ref="AR5" si="14">$N7/T7</f>
-        <v>1.1881443298969074</v>
+        <v>2.4807692307692308</v>
       </c>
       <c r="AS5" s="6">
         <f t="shared" ref="AS5" si="15">$N7/U7</f>
-        <v>1.1790281329923273</v>
+        <v>2.5244618395303324</v>
       </c>
       <c r="AT5" s="6">
         <f>$N7/V7</f>
-        <v>1.1299019607843137</v>
+        <v>2.5646123260437377</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N6" s="10">
-        <v>21.58</v>
+        <v>20.51</v>
       </c>
       <c r="O6" s="10">
-        <v>17.28</v>
+        <v>24.2</v>
       </c>
       <c r="P6" s="10">
-        <v>17.579999999999998</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="10">
-        <v>17.75</v>
+        <v>20.48</v>
       </c>
       <c r="R6" s="10">
-        <v>18.46</v>
+        <v>21.01</v>
       </c>
       <c r="S6" s="10">
-        <v>18.46</v>
+        <v>21.05</v>
       </c>
       <c r="T6" s="10">
-        <v>18.510000000000002</v>
+        <v>21.03</v>
       </c>
       <c r="U6" s="10">
-        <v>18.48</v>
+        <v>21.08</v>
       </c>
       <c r="V6" s="10">
-        <v>18.55</v>
+        <v>21.08</v>
       </c>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
@@ -8859,32 +10895,32 @@
       <c r="AT6" s="5"/>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N7" s="11">
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="O7" s="11">
-        <v>4.43</v>
-      </c>
-      <c r="P7" s="11">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>3.8</v>
-      </c>
-      <c r="R7" s="11">
-        <v>4.25</v>
-      </c>
-      <c r="S7" s="11">
-        <v>4.28</v>
-      </c>
-      <c r="T7" s="11">
-        <v>3.88</v>
-      </c>
-      <c r="U7" s="11">
-        <v>3.91</v>
-      </c>
-      <c r="V7" s="11">
-        <v>4.08</v>
+      <c r="N7" s="10">
+        <v>12.9</v>
+      </c>
+      <c r="O7" s="10">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="P7" s="10">
+        <v>6.55</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>5.85</v>
+      </c>
+      <c r="R7" s="10">
+        <v>5.56</v>
+      </c>
+      <c r="S7" s="10">
+        <v>5.35</v>
+      </c>
+      <c r="T7" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="U7" s="10">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="V7" s="10">
+        <v>5.03</v>
       </c>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
@@ -9062,70 +11098,70 @@
         <v>1</v>
       </c>
       <c r="N9" s="10">
-        <v>11.35</v>
+        <v>12.83</v>
       </c>
       <c r="O9" s="10">
-        <v>7.48</v>
+        <v>12.06</v>
       </c>
       <c r="P9" s="10">
-        <v>8.85</v>
+        <v>12.21</v>
       </c>
       <c r="Q9" s="10">
-        <v>9.33</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="R9" s="10">
-        <v>9.35</v>
+        <v>10.6</v>
       </c>
       <c r="S9" s="10">
-        <v>9.36</v>
+        <v>10.61</v>
       </c>
       <c r="T9" s="10">
-        <v>9.35</v>
+        <v>10.63</v>
       </c>
       <c r="U9" s="10">
-        <v>9.35</v>
+        <v>10.61</v>
       </c>
       <c r="V9" s="10">
-        <v>9.3800000000000008</v>
+        <v>10.63</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z9" s="6">
         <f xml:space="preserve"> (B9 * N9 * 60) / 1000</f>
-        <v>33.369</v>
+        <v>37.720199999999998</v>
       </c>
       <c r="AA9" s="6">
         <f t="shared" ref="AA9:AA10" si="16" xml:space="preserve"> (C9 * O9 * 60) / 1000</f>
-        <v>21.991199999999999</v>
+        <v>35.456400000000002</v>
       </c>
       <c r="AB9" s="6">
         <f t="shared" ref="AB9:AB10" si="17" xml:space="preserve"> (D9 * P9 * 60) / 1000</f>
-        <v>26.55</v>
+        <v>36.630000000000003</v>
       </c>
       <c r="AC9" s="6">
         <f t="shared" ref="AC9:AC10" si="18" xml:space="preserve"> (E9 * Q9 * 60) / 1000</f>
-        <v>27.99</v>
+        <v>25.589999999999996</v>
       </c>
       <c r="AD9" s="6">
         <f t="shared" ref="AD9:AD10" si="19" xml:space="preserve"> (F9 * R9 * 60) / 1000</f>
-        <v>28.05</v>
+        <v>31.8</v>
       </c>
       <c r="AE9" s="6">
         <f t="shared" ref="AE9:AE10" si="20" xml:space="preserve"> (G9 * S9 * 60) / 1000</f>
-        <v>28.08</v>
+        <v>31.83</v>
       </c>
       <c r="AF9" s="6">
         <f t="shared" ref="AF9:AF10" si="21" xml:space="preserve"> (H9 * T9 * 60) / 1000</f>
-        <v>28.05</v>
+        <v>31.89</v>
       </c>
       <c r="AG9" s="6">
         <f t="shared" ref="AG9:AG10" si="22" xml:space="preserve"> (I9 * U9 * 60) / 1000</f>
-        <v>28.05</v>
+        <v>31.83</v>
       </c>
       <c r="AH9" s="6">
         <f t="shared" ref="AH9:AH10" si="23" xml:space="preserve"> (J9 * V9 * 60) / 1000</f>
-        <v>28.140000000000004</v>
+        <v>31.89</v>
       </c>
       <c r="AK9" s="3" t="s">
         <v>1</v>
@@ -9136,35 +11172,35 @@
       </c>
       <c r="AM9" s="6">
         <f t="shared" ref="AM9:AM10" si="24">$N11/O11</f>
-        <v>1.517379679144385</v>
+        <v>1.0638474295190712</v>
       </c>
       <c r="AN9" s="6">
         <f t="shared" ref="AN9:AN10" si="25">$N11/P11</f>
-        <v>1.2824858757062148</v>
+        <v>1.0507780507780506</v>
       </c>
       <c r="AO9" s="6">
         <f t="shared" ref="AO9:AO10" si="26">$N11/Q11</f>
-        <v>1.2165058949624865</v>
+        <v>1.5041031652989449</v>
       </c>
       <c r="AP9" s="6">
         <f t="shared" ref="AP9:AP10" si="27">$N11/R11</f>
-        <v>1.213903743315508</v>
+        <v>1.2103773584905662</v>
       </c>
       <c r="AQ9" s="6">
         <f t="shared" ref="AQ9" si="28">$N11/S11</f>
-        <v>1.2126068376068377</v>
+        <v>1.2092365692742697</v>
       </c>
       <c r="AR9" s="6">
         <f t="shared" ref="AR9:AR10" si="29">$N11/T11</f>
-        <v>1.213903743315508</v>
+        <v>1.2069614299153339</v>
       </c>
       <c r="AS9" s="6">
         <f t="shared" ref="AS9:AS10" si="30">$N11/U11</f>
-        <v>1.213903743315508</v>
+        <v>1.2092365692742697</v>
       </c>
       <c r="AT9" s="6">
         <f>$N11/V11</f>
-        <v>1.2100213219616203</v>
+        <v>1.2069614299153339</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
@@ -9201,71 +11237,71 @@
       <c r="M10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N10" s="11">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O10" s="11">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="P10" s="11">
-        <v>3.91</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>3.41</v>
-      </c>
-      <c r="R10" s="11">
+      <c r="N10" s="10">
+        <v>12.86</v>
+      </c>
+      <c r="O10" s="10">
+        <v>6.88</v>
+      </c>
+      <c r="P10" s="10">
+        <v>4.58</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>5.33</v>
+      </c>
+      <c r="R10" s="10">
+        <v>3.78</v>
+      </c>
+      <c r="S10" s="10">
+        <v>3.16</v>
+      </c>
+      <c r="T10" s="10">
+        <v>4.03</v>
+      </c>
+      <c r="U10" s="10">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="V10" s="10">
         <v>4.08</v>
-      </c>
-      <c r="S10" s="11">
-        <v>3.53</v>
-      </c>
-      <c r="T10" s="11">
-        <v>3.93</v>
-      </c>
-      <c r="U10" s="11">
-        <v>3.25</v>
-      </c>
-      <c r="V10" s="11">
-        <v>3.58</v>
       </c>
       <c r="Y10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z10" s="6">
         <f xml:space="preserve"> (B10 * N10 * 60) / 1000</f>
-        <v>18.228000000000002</v>
+        <v>47.839199999999998</v>
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="16"/>
-        <v>14.615999999999998</v>
+        <v>24.768000000000001</v>
       </c>
       <c r="AB10" s="6">
         <f t="shared" si="17"/>
-        <v>12.668400000000002</v>
+        <v>14.839199999999998</v>
       </c>
       <c r="AC10" s="6">
         <f t="shared" si="18"/>
-        <v>10.639199999999999</v>
+        <v>16.629600000000003</v>
       </c>
       <c r="AD10" s="6">
         <f t="shared" si="19"/>
-        <v>13.219199999999999</v>
+        <v>12.247199999999999</v>
       </c>
       <c r="AE10" s="6">
         <f t="shared" si="20"/>
-        <v>10.59</v>
+        <v>9.48</v>
       </c>
       <c r="AF10" s="6">
         <f t="shared" si="21"/>
-        <v>11.318400000000002</v>
+        <v>11.606399999999999</v>
       </c>
       <c r="AG10" s="6">
         <f t="shared" si="22"/>
-        <v>10.53</v>
+        <v>15.713999999999999</v>
       </c>
       <c r="AH10" s="6">
         <f t="shared" si="23"/>
-        <v>10.74</v>
+        <v>12.24</v>
       </c>
       <c r="AK10" s="4" t="s">
         <v>2</v>
@@ -9276,64 +11312,64 @@
       </c>
       <c r="AM10" s="6">
         <f t="shared" si="24"/>
-        <v>1.2068965517241381</v>
+        <v>1.8691860465116279</v>
       </c>
       <c r="AN10" s="6">
         <f t="shared" si="25"/>
-        <v>1.2531969309462916</v>
+        <v>2.8078602620087336</v>
       </c>
       <c r="AO10" s="6">
         <f t="shared" si="26"/>
-        <v>1.436950146627566</v>
+        <v>2.4127579737335831</v>
       </c>
       <c r="AP10" s="6">
         <f t="shared" si="27"/>
-        <v>1.2009803921568629</v>
+        <v>3.4021164021164023</v>
       </c>
       <c r="AQ10" s="6">
         <f>$N12/S12</f>
-        <v>1.3881019830028329</v>
+        <v>4.0696202531645564</v>
       </c>
       <c r="AR10" s="6">
         <f t="shared" si="29"/>
-        <v>1.2468193384223918</v>
+        <v>3.1910669975186101</v>
       </c>
       <c r="AS10" s="6">
         <f t="shared" si="30"/>
-        <v>1.5076923076923079</v>
+        <v>2.6515463917525772</v>
       </c>
       <c r="AT10" s="6">
         <f>$N12/V12</f>
-        <v>1.3687150837988828</v>
+        <v>3.1519607843137254</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N11" s="10">
-        <v>11.35</v>
+        <v>12.83</v>
       </c>
       <c r="O11" s="10">
-        <v>7.48</v>
+        <v>12.06</v>
       </c>
       <c r="P11" s="10">
-        <v>8.85</v>
+        <v>12.21</v>
       </c>
       <c r="Q11" s="10">
-        <v>9.33</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="R11" s="10">
-        <v>9.35</v>
+        <v>10.6</v>
       </c>
       <c r="S11" s="10">
-        <v>9.36</v>
+        <v>10.61</v>
       </c>
       <c r="T11" s="10">
-        <v>9.35</v>
+        <v>10.63</v>
       </c>
       <c r="U11" s="10">
-        <v>9.35</v>
+        <v>10.61</v>
       </c>
       <c r="V11" s="10">
-        <v>9.3800000000000008</v>
+        <v>10.63</v>
       </c>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
@@ -9355,32 +11391,32 @@
       <c r="AT11" s="5"/>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N12" s="11">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O12" s="11">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="P12" s="11">
-        <v>3.91</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>3.41</v>
-      </c>
-      <c r="R12" s="11">
+      <c r="N12" s="10">
+        <v>12.86</v>
+      </c>
+      <c r="O12" s="10">
+        <v>6.88</v>
+      </c>
+      <c r="P12" s="10">
+        <v>4.58</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>5.33</v>
+      </c>
+      <c r="R12" s="10">
+        <v>3.78</v>
+      </c>
+      <c r="S12" s="10">
+        <v>3.16</v>
+      </c>
+      <c r="T12" s="10">
+        <v>4.03</v>
+      </c>
+      <c r="U12" s="10">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="V12" s="10">
         <v>4.08</v>
-      </c>
-      <c r="S12" s="11">
-        <v>3.53</v>
-      </c>
-      <c r="T12" s="11">
-        <v>3.93</v>
-      </c>
-      <c r="U12" s="11">
-        <v>3.25</v>
-      </c>
-      <c r="V12" s="11">
-        <v>3.58</v>
       </c>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
@@ -9558,70 +11594,70 @@
         <v>1</v>
       </c>
       <c r="N14" s="10">
-        <v>7.85</v>
+        <v>10.9</v>
       </c>
       <c r="O14" s="10">
-        <v>6.16</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="P14" s="10">
-        <v>7.21</v>
+        <v>8</v>
       </c>
       <c r="Q14" s="10">
-        <v>7.2</v>
+        <v>5.83</v>
       </c>
       <c r="R14" s="10">
-        <v>7.48</v>
+        <v>8.91</v>
       </c>
       <c r="S14" s="10">
-        <v>7.5</v>
+        <v>9.01</v>
       </c>
       <c r="T14" s="10">
-        <v>7.46</v>
+        <v>8.51</v>
       </c>
       <c r="U14" s="10">
-        <v>7.5</v>
+        <v>8.81</v>
       </c>
       <c r="V14" s="10">
-        <v>7.5</v>
+        <v>8.65</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z14" s="6">
         <f xml:space="preserve"> (B14 * N14 * 60) / 1000</f>
-        <v>28.730999999999998</v>
+        <v>39.893999999999998</v>
       </c>
       <c r="AA14" s="6">
         <f t="shared" ref="AA14:AA15" si="31" xml:space="preserve"> (C14 * O14 * 60) / 1000</f>
-        <v>22.5456</v>
+        <v>36.453600000000009</v>
       </c>
       <c r="AB14" s="6">
         <f t="shared" ref="AB14:AB15" si="32" xml:space="preserve"> (D14 * P14 * 60) / 1000</f>
-        <v>25.523399999999999</v>
+        <v>28.32</v>
       </c>
       <c r="AC14" s="6">
         <f t="shared" ref="AC14:AC15" si="33" xml:space="preserve"> (E14 * Q14 * 60) / 1000</f>
-        <v>25.488</v>
+        <v>20.638200000000001</v>
       </c>
       <c r="AD14" s="6">
         <f t="shared" ref="AD14:AD15" si="34" xml:space="preserve"> (F14 * R14 * 60) / 1000</f>
-        <v>26.928000000000001</v>
+        <v>32.076000000000001</v>
       </c>
       <c r="AE14" s="6">
         <f t="shared" ref="AE14:AE15" si="35" xml:space="preserve"> (G14 * S14 * 60) / 1000</f>
-        <v>27</v>
+        <v>32.436</v>
       </c>
       <c r="AF14" s="6">
         <f t="shared" ref="AF14:AF15" si="36" xml:space="preserve"> (H14 * T14 * 60) / 1000</f>
-        <v>26.856000000000002</v>
+        <v>30.635999999999996</v>
       </c>
       <c r="AG14" s="6">
         <f t="shared" ref="AG14:AG15" si="37" xml:space="preserve"> (I14 * U14 * 60) / 1000</f>
-        <v>27</v>
+        <v>31.716000000000001</v>
       </c>
       <c r="AH14" s="6">
         <f t="shared" ref="AH14:AH15" si="38" xml:space="preserve"> (J14 * V14 * 60) / 1000</f>
-        <v>27</v>
+        <v>31.14</v>
       </c>
       <c r="AK14" s="3" t="s">
         <v>1</v>
@@ -9632,35 +11668,35 @@
       </c>
       <c r="AM14" s="6">
         <f t="shared" ref="AM14:AM15" si="39">$N16/O16</f>
-        <v>1.2743506493506493</v>
+        <v>1.0943775100401605</v>
       </c>
       <c r="AN14" s="6">
         <f t="shared" ref="AN14:AN15" si="40">$N16/P16</f>
-        <v>1.0887656033287101</v>
+        <v>1.3625</v>
       </c>
       <c r="AO14" s="6">
         <f t="shared" ref="AO14:AO15" si="41">$N16/Q16</f>
-        <v>1.0902777777777777</v>
+        <v>1.869639794168096</v>
       </c>
       <c r="AP14" s="6">
         <f t="shared" ref="AP14:AP15" si="42">$N16/R16</f>
-        <v>1.0494652406417111</v>
+        <v>1.22334455667789</v>
       </c>
       <c r="AQ14" s="6">
         <f t="shared" ref="AQ14" si="43">$N16/S16</f>
-        <v>1.0466666666666666</v>
+        <v>1.2097669256381798</v>
       </c>
       <c r="AR14" s="6">
         <f t="shared" ref="AR14:AR15" si="44">$N16/T16</f>
-        <v>1.052278820375335</v>
+        <v>1.2808460634547592</v>
       </c>
       <c r="AS14" s="6">
         <f t="shared" ref="AS14:AS15" si="45">$N16/U16</f>
-        <v>1.0466666666666666</v>
+        <v>1.2372304199772985</v>
       </c>
       <c r="AT14" s="6">
         <f>$N16/V16</f>
-        <v>1.0466666666666666</v>
+        <v>1.2601156069364161</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
@@ -9697,71 +11733,71 @@
       <c r="M15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="11">
-        <v>5.3</v>
-      </c>
-      <c r="O15" s="11">
-        <v>3.85</v>
-      </c>
-      <c r="P15" s="11">
-        <v>3.73</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>3.18</v>
-      </c>
-      <c r="R15" s="11">
-        <v>3.25</v>
-      </c>
-      <c r="S15" s="11">
+      <c r="N15" s="10">
+        <v>12.88</v>
+      </c>
+      <c r="O15" s="10">
+        <v>6.88</v>
+      </c>
+      <c r="P15" s="10">
+        <v>4.45</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="R15" s="10">
+        <v>4.25</v>
+      </c>
+      <c r="S15" s="10">
+        <v>4.51</v>
+      </c>
+      <c r="T15" s="10">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="U15" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="V15" s="10">
         <v>3.75</v>
-      </c>
-      <c r="T15" s="11">
-        <v>3.68</v>
-      </c>
-      <c r="U15" s="11">
-        <v>3.33</v>
-      </c>
-      <c r="V15" s="11">
-        <v>3.65</v>
       </c>
       <c r="Y15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z15" s="6">
         <f xml:space="preserve"> (B15 * N15 * 60) / 1000</f>
-        <v>19.715999999999998</v>
+        <v>47.913600000000002</v>
       </c>
       <c r="AA15" s="6">
         <f t="shared" si="31"/>
-        <v>13.398</v>
+        <v>23.942400000000003</v>
       </c>
       <c r="AB15" s="6">
         <f t="shared" si="32"/>
-        <v>12.5328</v>
+        <v>14.952000000000002</v>
       </c>
       <c r="AC15" s="6">
         <f t="shared" si="33"/>
-        <v>10.3032</v>
+        <v>16.5564</v>
       </c>
       <c r="AD15" s="6">
         <f t="shared" si="34"/>
-        <v>10.53</v>
+        <v>13.77</v>
       </c>
       <c r="AE15" s="6">
         <f t="shared" si="35"/>
-        <v>12.375</v>
+        <v>14.882999999999997</v>
       </c>
       <c r="AF15" s="6">
         <f t="shared" si="36"/>
-        <v>11.4816</v>
+        <v>12.948</v>
       </c>
       <c r="AG15" s="6">
         <f t="shared" si="37"/>
-        <v>10.989000000000001</v>
+        <v>13.86</v>
       </c>
       <c r="AH15" s="6">
         <f t="shared" si="38"/>
-        <v>10.95</v>
+        <v>11.25</v>
       </c>
       <c r="AK15" s="4" t="s">
         <v>2</v>
@@ -9772,64 +11808,64 @@
       </c>
       <c r="AM15" s="6">
         <f t="shared" si="39"/>
-        <v>1.3766233766233766</v>
+        <v>1.8720930232558142</v>
       </c>
       <c r="AN15" s="6">
         <f t="shared" si="40"/>
-        <v>1.4209115281501341</v>
+        <v>2.8943820224719103</v>
       </c>
       <c r="AO15" s="6">
         <f t="shared" si="41"/>
-        <v>1.6666666666666665</v>
+        <v>2.5205479452054793</v>
       </c>
       <c r="AP15" s="6">
         <f t="shared" si="42"/>
-        <v>1.6307692307692307</v>
+        <v>3.0305882352941178</v>
       </c>
       <c r="AQ15" s="6">
         <f>$N17/S17</f>
-        <v>1.4133333333333333</v>
+        <v>2.8558758314855881</v>
       </c>
       <c r="AR15" s="6">
         <f t="shared" si="44"/>
-        <v>1.4402173913043477</v>
+        <v>3.1036144578313252</v>
       </c>
       <c r="AS15" s="6">
         <f t="shared" si="45"/>
-        <v>1.5915915915915915</v>
+        <v>3.0666666666666669</v>
       </c>
       <c r="AT15" s="6">
         <f>$N17/V17</f>
-        <v>1.452054794520548</v>
+        <v>3.4346666666666668</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N16" s="10">
-        <v>7.85</v>
+        <v>10.9</v>
       </c>
       <c r="O16" s="10">
-        <v>6.16</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="P16" s="10">
-        <v>7.21</v>
+        <v>8</v>
       </c>
       <c r="Q16" s="10">
-        <v>7.2</v>
+        <v>5.83</v>
       </c>
       <c r="R16" s="10">
-        <v>7.48</v>
+        <v>8.91</v>
       </c>
       <c r="S16" s="10">
-        <v>7.5</v>
+        <v>9.01</v>
       </c>
       <c r="T16" s="10">
-        <v>7.46</v>
+        <v>8.51</v>
       </c>
       <c r="U16" s="10">
-        <v>7.5</v>
+        <v>8.81</v>
       </c>
       <c r="V16" s="10">
-        <v>7.5</v>
+        <v>8.65</v>
       </c>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
@@ -9851,32 +11887,32 @@
       <c r="AT16" s="5"/>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N17" s="11">
-        <v>5.3</v>
-      </c>
-      <c r="O17" s="11">
-        <v>3.85</v>
-      </c>
-      <c r="P17" s="11">
-        <v>3.73</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>3.18</v>
-      </c>
-      <c r="R17" s="11">
-        <v>3.25</v>
-      </c>
-      <c r="S17" s="11">
+      <c r="N17" s="10">
+        <v>12.88</v>
+      </c>
+      <c r="O17" s="10">
+        <v>6.88</v>
+      </c>
+      <c r="P17" s="10">
+        <v>4.45</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="R17" s="10">
+        <v>4.25</v>
+      </c>
+      <c r="S17" s="10">
+        <v>4.51</v>
+      </c>
+      <c r="T17" s="10">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="U17" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="V17" s="10">
         <v>3.75</v>
-      </c>
-      <c r="T17" s="11">
-        <v>3.68</v>
-      </c>
-      <c r="U17" s="11">
-        <v>3.33</v>
-      </c>
-      <c r="V17" s="11">
-        <v>3.65</v>
       </c>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
@@ -10054,70 +12090,70 @@
         <v>1</v>
       </c>
       <c r="N19" s="10">
-        <v>6.28</v>
+        <v>10.91</v>
       </c>
       <c r="O19" s="10">
-        <v>5.3</v>
+        <v>7.35</v>
       </c>
       <c r="P19" s="10">
-        <v>4.68</v>
+        <v>4.96</v>
       </c>
       <c r="Q19" s="10">
-        <v>5.7</v>
+        <v>6.73</v>
       </c>
       <c r="R19" s="10">
-        <v>5.61</v>
+        <v>6.5</v>
       </c>
       <c r="S19" s="10">
-        <v>5.7</v>
+        <v>7.01</v>
       </c>
       <c r="T19" s="10">
-        <v>5.73</v>
+        <v>6.56</v>
       </c>
       <c r="U19" s="10">
-        <v>5.71</v>
+        <v>6.85</v>
       </c>
       <c r="V19" s="10">
-        <v>5.81</v>
+        <v>6.65</v>
       </c>
       <c r="Y19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z19" s="6">
         <f xml:space="preserve"> (B19 * N19 * 60) / 1000</f>
-        <v>25.999200000000002</v>
+        <v>45.167399999999994</v>
       </c>
       <c r="AA19" s="6">
         <f t="shared" ref="AA19:AA20" si="46" xml:space="preserve"> (C19 * O19 * 60) / 1000</f>
-        <v>22.26</v>
+        <v>30.87</v>
       </c>
       <c r="AB19" s="6">
         <f t="shared" ref="AB19:AB20" si="47" xml:space="preserve"> (D19 * P19 * 60) / 1000</f>
-        <v>19.936799999999998</v>
+        <v>21.129600000000003</v>
       </c>
       <c r="AC19" s="6">
         <f t="shared" ref="AC19:AC20" si="48" xml:space="preserve"> (E19 * Q19 * 60) / 1000</f>
-        <v>24.282</v>
+        <v>28.669800000000002</v>
       </c>
       <c r="AD19" s="6">
         <f t="shared" ref="AD19:AD20" si="49" xml:space="preserve"> (F19 * R19 * 60) / 1000</f>
-        <v>23.898599999999998</v>
+        <v>27.69</v>
       </c>
       <c r="AE19" s="6">
         <f t="shared" ref="AE19:AE20" si="50" xml:space="preserve"> (G19 * S19 * 60) / 1000</f>
-        <v>24.624000000000002</v>
+        <v>30.283199999999997</v>
       </c>
       <c r="AF19" s="6">
         <f t="shared" ref="AF19:AF20" si="51" xml:space="preserve"> (H19 * T19 * 60) / 1000</f>
-        <v>24.753600000000002</v>
+        <v>28.339200000000002</v>
       </c>
       <c r="AG19" s="6">
         <f t="shared" ref="AG19:AG20" si="52" xml:space="preserve"> (I19 * U19 * 60) / 1000</f>
-        <v>25.009799999999998</v>
+        <v>30.002999999999997</v>
       </c>
       <c r="AH19" s="6">
         <f t="shared" ref="AH19:AH20" si="53" xml:space="preserve"> (J19 * V19 * 60) / 1000</f>
-        <v>25.447800000000001</v>
+        <v>29.127000000000002</v>
       </c>
       <c r="AK19" s="3" t="s">
         <v>1</v>
@@ -10128,35 +12164,35 @@
       </c>
       <c r="AM19" s="6">
         <f t="shared" ref="AM19:AM20" si="54">$N21/O21</f>
-        <v>1.1849056603773587</v>
+        <v>1.4843537414965988</v>
       </c>
       <c r="AN19" s="6">
         <f t="shared" ref="AN19:AN20" si="55">$N21/P21</f>
-        <v>1.341880341880342</v>
+        <v>2.1995967741935485</v>
       </c>
       <c r="AO19" s="6">
         <f t="shared" ref="AO19:AO20" si="56">$N21/Q21</f>
-        <v>1.1017543859649124</v>
+        <v>1.6210995542347697</v>
       </c>
       <c r="AP19" s="6">
         <f t="shared" ref="AP19:AP20" si="57">$N21/R21</f>
-        <v>1.1194295900178253</v>
+        <v>1.6784615384615384</v>
       </c>
       <c r="AQ19" s="6">
         <f t="shared" ref="AQ19" si="58">$N21/S21</f>
-        <v>1.1017543859649124</v>
+        <v>1.5563480741797433</v>
       </c>
       <c r="AR19" s="6">
         <f t="shared" ref="AR19:AR20" si="59">$N21/T21</f>
-        <v>1.0959860383944153</v>
+        <v>1.6631097560975612</v>
       </c>
       <c r="AS19" s="6">
         <f t="shared" ref="AS19:AS20" si="60">$N21/U21</f>
-        <v>1.0998248686514887</v>
+        <v>1.5927007299270075</v>
       </c>
       <c r="AT19" s="6">
         <f>$N21/V21</f>
-        <v>1.0808950086058522</v>
+        <v>1.6406015037593984</v>
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
@@ -10193,71 +12229,71 @@
       <c r="M20" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="11">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="O20" s="11">
-        <v>4.18</v>
-      </c>
-      <c r="P20" s="11">
-        <v>3.7</v>
-      </c>
-      <c r="Q20" s="11">
-        <v>3.86</v>
-      </c>
-      <c r="R20" s="11">
-        <v>3.8</v>
-      </c>
-      <c r="S20" s="11">
-        <v>3.31</v>
-      </c>
-      <c r="T20" s="11">
-        <v>4.08</v>
-      </c>
-      <c r="U20" s="11">
-        <v>3.76</v>
-      </c>
-      <c r="V20" s="11">
-        <v>3.21</v>
+      <c r="N20" s="10">
+        <v>12.88</v>
+      </c>
+      <c r="O20" s="10">
+        <v>7.85</v>
+      </c>
+      <c r="P20" s="10">
+        <v>6.25</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>3.83</v>
+      </c>
+      <c r="R20" s="10">
+        <v>4.51</v>
+      </c>
+      <c r="S20" s="10">
+        <v>3.66</v>
+      </c>
+      <c r="T20" s="10">
+        <v>4.28</v>
+      </c>
+      <c r="U20" s="10">
+        <v>4.21</v>
+      </c>
+      <c r="V20" s="10">
+        <v>3.5</v>
       </c>
       <c r="Y20" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z20" s="6">
         <f xml:space="preserve"> (B20 * N20 * 60) / 1000</f>
-        <v>18.823199999999996</v>
+        <v>47.913600000000002</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" si="46"/>
-        <v>15.047999999999998</v>
+        <v>28.26</v>
       </c>
       <c r="AB20" s="6">
         <f t="shared" si="47"/>
-        <v>13.32</v>
+        <v>22.5</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" si="48"/>
-        <v>12.9696</v>
+        <v>12.8688</v>
       </c>
       <c r="AD20" s="6">
         <f t="shared" si="49"/>
-        <v>13.68</v>
+        <v>16.235999999999997</v>
       </c>
       <c r="AE20" s="6">
         <f t="shared" si="50"/>
-        <v>11.916</v>
+        <v>13.176000000000002</v>
       </c>
       <c r="AF20" s="6">
         <f t="shared" si="51"/>
-        <v>14.198400000000001</v>
+        <v>14.894400000000001</v>
       </c>
       <c r="AG20" s="6">
         <f t="shared" si="52"/>
-        <v>13.0848</v>
+        <v>14.6508</v>
       </c>
       <c r="AH20" s="6">
         <f t="shared" si="53"/>
-        <v>11.170800000000002</v>
+        <v>12.18</v>
       </c>
       <c r="AK20" s="4" t="s">
         <v>2</v>
@@ -10268,64 +12304,64 @@
       </c>
       <c r="AM20" s="6">
         <f t="shared" si="54"/>
-        <v>1.2105263157894737</v>
+        <v>1.6407643312101912</v>
       </c>
       <c r="AN20" s="6">
         <f t="shared" si="55"/>
-        <v>1.3675675675675674</v>
+        <v>2.0608</v>
       </c>
       <c r="AO20" s="6">
         <f t="shared" si="56"/>
-        <v>1.310880829015544</v>
+        <v>3.3629242819843341</v>
       </c>
       <c r="AP20" s="6">
         <f t="shared" si="57"/>
-        <v>1.331578947368421</v>
+        <v>2.8558758314855881</v>
       </c>
       <c r="AQ20" s="6">
         <f>$N22/S22</f>
-        <v>1.5287009063444108</v>
+        <v>3.5191256830601092</v>
       </c>
       <c r="AR20" s="6">
         <f t="shared" si="59"/>
-        <v>1.2401960784313724</v>
+        <v>3.0093457943925235</v>
       </c>
       <c r="AS20" s="6">
         <f t="shared" si="60"/>
-        <v>1.3457446808510638</v>
+        <v>3.0593824228028508</v>
       </c>
       <c r="AT20" s="6">
         <f>$N22/V22</f>
-        <v>1.5763239875389408</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N21" s="10">
-        <v>6.28</v>
+        <v>10.91</v>
       </c>
       <c r="O21" s="10">
-        <v>5.3</v>
+        <v>7.35</v>
       </c>
       <c r="P21" s="10">
-        <v>4.68</v>
+        <v>4.96</v>
       </c>
       <c r="Q21" s="10">
-        <v>5.7</v>
+        <v>6.73</v>
       </c>
       <c r="R21" s="10">
-        <v>5.61</v>
+        <v>6.5</v>
       </c>
       <c r="S21" s="10">
-        <v>5.7</v>
+        <v>7.01</v>
       </c>
       <c r="T21" s="10">
-        <v>5.73</v>
+        <v>6.56</v>
       </c>
       <c r="U21" s="10">
-        <v>5.71</v>
+        <v>6.85</v>
       </c>
       <c r="V21" s="10">
-        <v>5.81</v>
+        <v>6.65</v>
       </c>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
@@ -10347,32 +12383,32 @@
       <c r="AT21" s="5"/>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N22" s="11">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="O22" s="11">
-        <v>4.18</v>
-      </c>
-      <c r="P22" s="11">
-        <v>3.7</v>
-      </c>
-      <c r="Q22" s="11">
-        <v>3.86</v>
-      </c>
-      <c r="R22" s="11">
-        <v>3.8</v>
-      </c>
-      <c r="S22" s="11">
-        <v>3.31</v>
-      </c>
-      <c r="T22" s="11">
-        <v>4.08</v>
-      </c>
-      <c r="U22" s="11">
-        <v>3.76</v>
-      </c>
-      <c r="V22" s="11">
-        <v>3.21</v>
+      <c r="N22" s="10">
+        <v>12.88</v>
+      </c>
+      <c r="O22" s="10">
+        <v>7.85</v>
+      </c>
+      <c r="P22" s="10">
+        <v>6.25</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>3.83</v>
+      </c>
+      <c r="R22" s="10">
+        <v>4.51</v>
+      </c>
+      <c r="S22" s="10">
+        <v>3.66</v>
+      </c>
+      <c r="T22" s="10">
+        <v>4.28</v>
+      </c>
+      <c r="U22" s="10">
+        <v>4.21</v>
+      </c>
+      <c r="V22" s="10">
+        <v>3.5</v>
       </c>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
@@ -10550,70 +12586,70 @@
         <v>1</v>
       </c>
       <c r="N24" s="10">
-        <v>6.23</v>
+        <v>10.98</v>
       </c>
       <c r="O24" s="10">
-        <v>5.26</v>
+        <v>6</v>
       </c>
       <c r="P24" s="10">
-        <v>5.43</v>
+        <v>4.96</v>
       </c>
       <c r="Q24" s="10">
-        <v>5.76</v>
+        <v>6.63</v>
       </c>
       <c r="R24" s="10">
-        <v>5.7</v>
+        <v>6.68</v>
       </c>
       <c r="S24" s="10">
-        <v>5.8</v>
+        <v>6.53</v>
       </c>
       <c r="T24" s="10">
-        <v>5.71</v>
+        <v>6.88</v>
       </c>
       <c r="U24" s="10">
-        <v>5.73</v>
+        <v>6.48</v>
       </c>
       <c r="V24" s="10">
-        <v>5.76</v>
+        <v>6.8</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z24" s="6">
         <f xml:space="preserve"> (B24 * N24 * 60) / 1000</f>
-        <v>24.6708</v>
+        <v>43.480800000000002</v>
       </c>
       <c r="AA24" s="6">
         <f t="shared" ref="AA24:AA25" si="61" xml:space="preserve"> (C24 * O24 * 60) / 1000</f>
-        <v>22.091999999999999</v>
+        <v>25.2</v>
       </c>
       <c r="AB24" s="6">
         <f t="shared" ref="AB24:AB25" si="62" xml:space="preserve"> (D24 * P24 * 60) / 1000</f>
-        <v>23.131799999999998</v>
+        <v>21.129600000000003</v>
       </c>
       <c r="AC24" s="6">
         <f t="shared" ref="AC24:AC25" si="63" xml:space="preserve"> (E24 * Q24 * 60) / 1000</f>
-        <v>24.537599999999998</v>
+        <v>28.243800000000004</v>
       </c>
       <c r="AD24" s="6">
         <f t="shared" ref="AD24:AD25" si="64" xml:space="preserve"> (F24 * R24 * 60) / 1000</f>
-        <v>24.624000000000002</v>
+        <v>28.857599999999998</v>
       </c>
       <c r="AE24" s="6">
         <f t="shared" ref="AE24:AE25" si="65" xml:space="preserve"> (G24 * S24 * 60) / 1000</f>
-        <v>25.055999999999997</v>
+        <v>28.209600000000002</v>
       </c>
       <c r="AF24" s="6">
         <f t="shared" ref="AF24:AF25" si="66" xml:space="preserve"> (H24 * T24 * 60) / 1000</f>
-        <v>24.667200000000001</v>
+        <v>29.721600000000002</v>
       </c>
       <c r="AG24" s="6">
         <f t="shared" ref="AG24:AG25" si="67" xml:space="preserve"> (I24 * U24 * 60) / 1000</f>
-        <v>24.753600000000002</v>
+        <v>27.993600000000001</v>
       </c>
       <c r="AH24" s="6">
         <f t="shared" ref="AH24:AH25" si="68" xml:space="preserve"> (J24 * V24 * 60) / 1000</f>
-        <v>24.883199999999999</v>
+        <v>29.375999999999998</v>
       </c>
       <c r="AK24" s="3" t="s">
         <v>1</v>
@@ -10624,35 +12660,35 @@
       </c>
       <c r="AM24" s="6">
         <f t="shared" ref="AM24:AM25" si="69">$N26/O26</f>
-        <v>1.1844106463878328</v>
+        <v>1.83</v>
       </c>
       <c r="AN24" s="6">
         <f t="shared" ref="AN24:AN25" si="70">$N26/P26</f>
-        <v>1.1473296500920811</v>
+        <v>2.213709677419355</v>
       </c>
       <c r="AO24" s="6">
         <f t="shared" ref="AO24:AO25" si="71">$N26/Q26</f>
-        <v>1.0815972222222223</v>
+        <v>1.656108597285068</v>
       </c>
       <c r="AP24" s="6">
         <f t="shared" ref="AP24:AP25" si="72">$N26/R26</f>
-        <v>1.0929824561403509</v>
+        <v>1.6437125748502996</v>
       </c>
       <c r="AQ24" s="6">
         <f t="shared" ref="AQ24" si="73">$N26/S26</f>
-        <v>1.074137931034483</v>
+        <v>1.6814701378254211</v>
       </c>
       <c r="AR24" s="6">
         <f t="shared" ref="AR24:AR25" si="74">$N26/T26</f>
-        <v>1.0910683012259195</v>
+        <v>1.5959302325581397</v>
       </c>
       <c r="AS24" s="6">
         <f t="shared" ref="AS24:AS25" si="75">$N26/U26</f>
-        <v>1.087260034904014</v>
+        <v>1.6944444444444444</v>
       </c>
       <c r="AT24" s="6">
         <f>$N26/V26</f>
-        <v>1.0815972222222223</v>
+        <v>1.6147058823529412</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.25">
@@ -10689,71 +12725,71 @@
       <c r="M25" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="11">
-        <v>4.7</v>
-      </c>
-      <c r="O25" s="11">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="P25" s="11">
+      <c r="N25" s="10">
+        <v>12.91</v>
+      </c>
+      <c r="O25" s="10">
+        <v>7.03</v>
+      </c>
+      <c r="P25" s="10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q25" s="10">
         <v>3.88</v>
       </c>
-      <c r="Q25" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="R25" s="11">
-        <v>3.71</v>
-      </c>
-      <c r="S25" s="11">
-        <v>3.86</v>
-      </c>
-      <c r="T25" s="11">
-        <v>3.61</v>
-      </c>
-      <c r="U25" s="11">
-        <v>3.63</v>
-      </c>
-      <c r="V25" s="11">
-        <v>4.3099999999999996</v>
+      <c r="R25" s="10">
+        <v>4.16</v>
+      </c>
+      <c r="S25" s="10">
+        <v>3.65</v>
+      </c>
+      <c r="T25" s="10">
+        <v>3.45</v>
+      </c>
+      <c r="U25" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="V25" s="10">
+        <v>2.85</v>
       </c>
       <c r="Y25" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z25" s="6">
         <f xml:space="preserve"> (B25 * N25 * 60) / 1000</f>
-        <v>17.484000000000005</v>
+        <v>48.025199999999998</v>
       </c>
       <c r="AA25" s="6">
         <f t="shared" si="61"/>
-        <v>14.940000000000001</v>
+        <v>25.308</v>
       </c>
       <c r="AB25" s="6">
         <f t="shared" si="62"/>
-        <v>13.5024</v>
+        <v>17.052000000000003</v>
       </c>
       <c r="AC25" s="6">
         <f t="shared" si="63"/>
-        <v>11.087999999999997</v>
+        <v>13.036799999999999</v>
       </c>
       <c r="AD25" s="6">
         <f t="shared" si="64"/>
-        <v>12.0204</v>
+        <v>13.478400000000001</v>
       </c>
       <c r="AE25" s="6">
         <f t="shared" si="65"/>
-        <v>12.506399999999999</v>
+        <v>11.826000000000001</v>
       </c>
       <c r="AF25" s="6">
         <f t="shared" si="66"/>
-        <v>12.1296</v>
+        <v>11.592000000000002</v>
       </c>
       <c r="AG25" s="6">
         <f t="shared" si="67"/>
-        <v>11.761199999999999</v>
+        <v>13.932</v>
       </c>
       <c r="AH25" s="6">
         <f t="shared" si="68"/>
-        <v>12.929999999999998</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="AK25" s="4" t="s">
         <v>2</v>
@@ -10764,64 +12800,64 @@
       </c>
       <c r="AM25" s="6">
         <f t="shared" si="69"/>
-        <v>1.1325301204819276</v>
+        <v>1.8364153627311521</v>
       </c>
       <c r="AN25" s="6">
         <f t="shared" si="70"/>
-        <v>1.2113402061855671</v>
+        <v>2.6346938775510202</v>
       </c>
       <c r="AO25" s="6">
         <f t="shared" si="71"/>
-        <v>1.4242424242424243</v>
+        <v>3.3273195876288661</v>
       </c>
       <c r="AP25" s="6">
         <f t="shared" si="72"/>
-        <v>1.2668463611859839</v>
+        <v>3.1033653846153846</v>
       </c>
       <c r="AQ25" s="6">
         <f>$N27/S27</f>
-        <v>1.2176165803108809</v>
+        <v>3.536986301369863</v>
       </c>
       <c r="AR25" s="6">
         <f t="shared" si="74"/>
-        <v>1.3019390581717452</v>
+        <v>3.7420289855072464</v>
       </c>
       <c r="AS25" s="6">
         <f t="shared" si="75"/>
-        <v>1.2947658402203857</v>
+        <v>3.0023255813953491</v>
       </c>
       <c r="AT25" s="6">
         <f>$N27/V27</f>
-        <v>1.0904872389791185</v>
+        <v>4.5298245614035091</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N26" s="10">
-        <v>6.23</v>
+        <v>10.98</v>
       </c>
       <c r="O26" s="10">
-        <v>5.26</v>
+        <v>6</v>
       </c>
       <c r="P26" s="10">
-        <v>5.43</v>
+        <v>4.96</v>
       </c>
       <c r="Q26" s="10">
-        <v>5.76</v>
+        <v>6.63</v>
       </c>
       <c r="R26" s="10">
-        <v>5.7</v>
+        <v>6.68</v>
       </c>
       <c r="S26" s="10">
-        <v>5.8</v>
+        <v>6.53</v>
       </c>
       <c r="T26" s="10">
-        <v>5.71</v>
+        <v>6.88</v>
       </c>
       <c r="U26" s="10">
-        <v>5.73</v>
+        <v>6.48</v>
       </c>
       <c r="V26" s="10">
-        <v>5.76</v>
+        <v>6.8</v>
       </c>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
@@ -10843,32 +12879,32 @@
       <c r="AT26" s="5"/>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N27" s="11">
-        <v>4.7</v>
-      </c>
-      <c r="O27" s="11">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="P27" s="11">
+      <c r="N27" s="10">
+        <v>12.91</v>
+      </c>
+      <c r="O27" s="10">
+        <v>7.03</v>
+      </c>
+      <c r="P27" s="10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q27" s="10">
         <v>3.88</v>
       </c>
-      <c r="Q27" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="R27" s="11">
-        <v>3.71</v>
-      </c>
-      <c r="S27" s="11">
-        <v>3.86</v>
-      </c>
-      <c r="T27" s="11">
-        <v>3.61</v>
-      </c>
-      <c r="U27" s="11">
-        <v>3.63</v>
-      </c>
-      <c r="V27" s="11">
-        <v>4.3099999999999996</v>
+      <c r="R27" s="10">
+        <v>4.16</v>
+      </c>
+      <c r="S27" s="10">
+        <v>3.65</v>
+      </c>
+      <c r="T27" s="10">
+        <v>3.45</v>
+      </c>
+      <c r="U27" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="V27" s="10">
+        <v>2.85</v>
       </c>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
@@ -11046,70 +13082,70 @@
         <v>1</v>
       </c>
       <c r="N29" s="10">
-        <v>6.3</v>
+        <v>10.93</v>
       </c>
       <c r="O29" s="10">
-        <v>5.28</v>
+        <v>7.33</v>
       </c>
       <c r="P29" s="10">
-        <v>4.6500000000000004</v>
+        <v>4.55</v>
       </c>
       <c r="Q29" s="10">
-        <v>5.53</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="R29" s="10">
-        <v>5.7</v>
+        <v>6.51</v>
       </c>
       <c r="S29" s="10">
-        <v>5.7</v>
+        <v>6.45</v>
       </c>
       <c r="T29" s="10">
-        <v>5.8</v>
+        <v>6.33</v>
       </c>
       <c r="U29" s="10">
-        <v>5.75</v>
+        <v>6.73</v>
       </c>
       <c r="V29" s="10">
-        <v>5.71</v>
+        <v>5.26</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z29" s="6">
         <f xml:space="preserve"> (B29 * N29 * 60) / 1000</f>
-        <v>25.325999999999997</v>
+        <v>43.938600000000001</v>
       </c>
       <c r="AA29" s="6">
         <f t="shared" ref="AA29:AA30" si="76" xml:space="preserve"> (C29 * O29 * 60) / 1000</f>
-        <v>22.492799999999999</v>
+        <v>31.225799999999996</v>
       </c>
       <c r="AB29" s="6">
         <f t="shared" ref="AB29:AB30" si="77" xml:space="preserve"> (D29 * P29 * 60) / 1000</f>
-        <v>20.088000000000001</v>
+        <v>19.655999999999995</v>
       </c>
       <c r="AC29" s="6">
         <f t="shared" ref="AC29:AC30" si="78" xml:space="preserve"> (E29 * Q29 * 60) / 1000</f>
-        <v>23.889600000000002</v>
+        <v>21.513600000000004</v>
       </c>
       <c r="AD29" s="6">
         <f t="shared" ref="AD29:AD30" si="79" xml:space="preserve"> (F29 * R29 * 60) / 1000</f>
-        <v>24.624000000000002</v>
+        <v>28.123199999999997</v>
       </c>
       <c r="AE29" s="6">
         <f t="shared" ref="AE29:AE30" si="80" xml:space="preserve"> (G29 * S29 * 60) / 1000</f>
-        <v>24.624000000000002</v>
+        <v>27.864000000000004</v>
       </c>
       <c r="AF29" s="6">
         <f t="shared" ref="AF29:AF30" si="81" xml:space="preserve"> (H29 * T29 * 60) / 1000</f>
-        <v>25.055999999999997</v>
+        <v>27.345599999999997</v>
       </c>
       <c r="AG29" s="6">
         <f t="shared" ref="AG29:AG30" si="82" xml:space="preserve"> (I29 * U29 * 60) / 1000</f>
-        <v>24.84</v>
+        <v>29.073600000000003</v>
       </c>
       <c r="AH29" s="6">
         <f t="shared" ref="AH29:AH30" si="83" xml:space="preserve"> (J29 * V29 * 60) / 1000</f>
-        <v>25.009799999999998</v>
+        <v>23.038799999999998</v>
       </c>
       <c r="AK29" s="3" t="s">
         <v>1</v>
@@ -11120,35 +13156,35 @@
       </c>
       <c r="AM29" s="6">
         <f t="shared" ref="AM29:AM30" si="84">$N31/O31</f>
-        <v>1.1931818181818181</v>
+        <v>1.491132332878581</v>
       </c>
       <c r="AN29" s="6">
         <f t="shared" ref="AN29:AN30" si="85">$N31/P31</f>
-        <v>1.3548387096774193</v>
+        <v>2.4021978021978021</v>
       </c>
       <c r="AO29" s="6">
         <f t="shared" ref="AO29:AO30" si="86">$N31/Q31</f>
-        <v>1.1392405063291138</v>
+        <v>2.1947791164658632</v>
       </c>
       <c r="AP29" s="6">
         <f t="shared" ref="AP29:AP30" si="87">$N31/R31</f>
-        <v>1.1052631578947367</v>
+        <v>1.6789554531490016</v>
       </c>
       <c r="AQ29" s="6">
         <f t="shared" ref="AQ29" si="88">$N31/S31</f>
-        <v>1.1052631578947367</v>
+        <v>1.6945736434108527</v>
       </c>
       <c r="AR29" s="6">
         <f t="shared" ref="AR29:AR30" si="89">$N31/T31</f>
-        <v>1.0862068965517242</v>
+        <v>1.7266982622432858</v>
       </c>
       <c r="AS29" s="6">
         <f t="shared" ref="AS29:AS30" si="90">$N31/U31</f>
-        <v>1.0956521739130434</v>
+        <v>1.6240713224368497</v>
       </c>
       <c r="AT29" s="6">
         <f>$N31/V31</f>
-        <v>1.1033274956217163</v>
+        <v>2.0779467680608366</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
@@ -11185,71 +13221,71 @@
       <c r="M30" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="11">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="O30" s="11">
-        <v>3.76</v>
-      </c>
-      <c r="P30" s="11">
-        <v>3.48</v>
-      </c>
-      <c r="Q30" s="11">
-        <v>3.28</v>
-      </c>
-      <c r="R30" s="11">
-        <v>3.9</v>
-      </c>
-      <c r="S30" s="11">
-        <v>3.48</v>
-      </c>
-      <c r="T30" s="11">
-        <v>3.91</v>
-      </c>
-      <c r="U30" s="11">
-        <v>3.56</v>
-      </c>
-      <c r="V30" s="11">
-        <v>3.96</v>
+      <c r="N30" s="10">
+        <v>12.88</v>
+      </c>
+      <c r="O30" s="10">
+        <v>7</v>
+      </c>
+      <c r="P30" s="10">
+        <v>4.53</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>4.95</v>
+      </c>
+      <c r="R30" s="10">
+        <v>4.08</v>
+      </c>
+      <c r="S30" s="10">
+        <v>4.05</v>
+      </c>
+      <c r="T30" s="10">
+        <v>4.33</v>
+      </c>
+      <c r="U30" s="10">
+        <v>4.13</v>
+      </c>
+      <c r="V30" s="10">
+        <v>4.16</v>
       </c>
       <c r="Y30" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z30" s="6">
         <f xml:space="preserve"> (B30 * N30 * 60) / 1000</f>
-        <v>17.019000000000002</v>
+        <v>47.140800000000006</v>
       </c>
       <c r="AA30" s="6">
         <f t="shared" si="76"/>
-        <v>13.9872</v>
+        <v>26.04</v>
       </c>
       <c r="AB30" s="6">
         <f t="shared" si="77"/>
-        <v>11.6928</v>
+        <v>15.220800000000001</v>
       </c>
       <c r="AC30" s="6">
         <f t="shared" si="78"/>
-        <v>10.627199999999998</v>
+        <v>16.038</v>
       </c>
       <c r="AD30" s="6">
         <f t="shared" si="79"/>
-        <v>12.167999999999997</v>
+        <v>12.7296</v>
       </c>
       <c r="AE30" s="6">
         <f t="shared" si="80"/>
-        <v>11.275199999999998</v>
+        <v>13.122</v>
       </c>
       <c r="AF30" s="6">
         <f t="shared" si="81"/>
-        <v>12.668400000000002</v>
+        <v>14.029199999999999</v>
       </c>
       <c r="AG30" s="6">
         <f t="shared" si="82"/>
-        <v>11.961600000000001</v>
+        <v>13.876799999999999</v>
       </c>
       <c r="AH30" s="6">
         <f t="shared" si="83"/>
-        <v>12.830399999999999</v>
+        <v>13.478400000000001</v>
       </c>
       <c r="AK30" s="4" t="s">
         <v>2</v>
@@ -11260,64 +13296,64 @@
       </c>
       <c r="AM30" s="6">
         <f t="shared" si="84"/>
-        <v>1.2367021276595747</v>
+        <v>1.84</v>
       </c>
       <c r="AN30" s="6">
         <f t="shared" si="85"/>
-        <v>1.3362068965517242</v>
+        <v>2.8432671081677703</v>
       </c>
       <c r="AO30" s="6">
         <f t="shared" si="86"/>
-        <v>1.4176829268292686</v>
+        <v>2.6020202020202019</v>
       </c>
       <c r="AP30" s="6">
         <f t="shared" si="87"/>
-        <v>1.1923076923076925</v>
+        <v>3.1568627450980395</v>
       </c>
       <c r="AQ30" s="6">
         <f>$N32/S32</f>
-        <v>1.3362068965517242</v>
+        <v>3.1802469135802474</v>
       </c>
       <c r="AR30" s="6">
         <f t="shared" si="89"/>
-        <v>1.1892583120204605</v>
+        <v>2.9745958429561203</v>
       </c>
       <c r="AS30" s="6">
         <f t="shared" si="90"/>
-        <v>1.306179775280899</v>
+        <v>3.1186440677966103</v>
       </c>
       <c r="AT30" s="6">
         <f>$N32/V32</f>
-        <v>1.1742424242424243</v>
+        <v>3.0961538461538463</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N31" s="10">
-        <v>6.3</v>
+        <v>10.93</v>
       </c>
       <c r="O31" s="10">
-        <v>5.28</v>
+        <v>7.33</v>
       </c>
       <c r="P31" s="10">
-        <v>4.6500000000000004</v>
+        <v>4.55</v>
       </c>
       <c r="Q31" s="10">
-        <v>5.53</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="R31" s="10">
-        <v>5.7</v>
+        <v>6.51</v>
       </c>
       <c r="S31" s="10">
-        <v>5.7</v>
+        <v>6.45</v>
       </c>
       <c r="T31" s="10">
-        <v>5.8</v>
+        <v>6.33</v>
       </c>
       <c r="U31" s="10">
-        <v>5.75</v>
+        <v>6.73</v>
       </c>
       <c r="V31" s="10">
-        <v>5.71</v>
+        <v>5.26</v>
       </c>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
@@ -11339,32 +13375,32 @@
       <c r="AT31" s="5"/>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N32" s="11">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="O32" s="11">
-        <v>3.76</v>
-      </c>
-      <c r="P32" s="11">
-        <v>3.48</v>
-      </c>
-      <c r="Q32" s="11">
-        <v>3.28</v>
-      </c>
-      <c r="R32" s="11">
-        <v>3.9</v>
-      </c>
-      <c r="S32" s="11">
-        <v>3.48</v>
-      </c>
-      <c r="T32" s="11">
-        <v>3.91</v>
-      </c>
-      <c r="U32" s="11">
-        <v>3.56</v>
-      </c>
-      <c r="V32" s="11">
-        <v>3.96</v>
+      <c r="N32" s="10">
+        <v>12.88</v>
+      </c>
+      <c r="O32" s="10">
+        <v>7</v>
+      </c>
+      <c r="P32" s="10">
+        <v>4.53</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>4.95</v>
+      </c>
+      <c r="R32" s="10">
+        <v>4.08</v>
+      </c>
+      <c r="S32" s="10">
+        <v>4.05</v>
+      </c>
+      <c r="T32" s="10">
+        <v>4.33</v>
+      </c>
+      <c r="U32" s="10">
+        <v>4.13</v>
+      </c>
+      <c r="V32" s="10">
+        <v>4.16</v>
       </c>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
@@ -11542,70 +13578,70 @@
         <v>1</v>
       </c>
       <c r="N34" s="10">
-        <v>6.3</v>
+        <v>10.93</v>
       </c>
       <c r="O34" s="10">
-        <v>4.71</v>
+        <v>7.33</v>
       </c>
       <c r="P34" s="10">
-        <v>4.68</v>
+        <v>4.93</v>
       </c>
       <c r="Q34" s="10">
-        <v>5.7</v>
+        <v>5.43</v>
       </c>
       <c r="R34" s="10">
-        <v>5.71</v>
+        <v>6.76</v>
       </c>
       <c r="S34" s="10">
-        <v>5.68</v>
+        <v>6.65</v>
       </c>
       <c r="T34" s="10">
-        <v>5.73</v>
+        <v>6.23</v>
       </c>
       <c r="U34" s="10">
-        <v>5.78</v>
+        <v>6.51</v>
       </c>
       <c r="V34" s="10">
-        <v>5.75</v>
+        <v>5.6</v>
       </c>
       <c r="Y34" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z34" s="6">
         <f xml:space="preserve"> (B34 * N34 * 60) / 1000</f>
-        <v>25.325999999999997</v>
+        <v>43.938600000000001</v>
       </c>
       <c r="AA34" s="6">
         <f t="shared" ref="AA34:AA35" si="91" xml:space="preserve"> (C34 * O34 * 60) / 1000</f>
-        <v>19.782</v>
+        <v>30.786000000000001</v>
       </c>
       <c r="AB34" s="6">
         <f t="shared" ref="AB34:AB35" si="92" xml:space="preserve"> (D34 * P34 * 60) / 1000</f>
-        <v>20.217599999999997</v>
+        <v>21.297599999999999</v>
       </c>
       <c r="AC34" s="6">
         <f t="shared" ref="AC34:AC35" si="93" xml:space="preserve"> (E34 * Q34 * 60) / 1000</f>
-        <v>24.624000000000002</v>
+        <v>23.457599999999999</v>
       </c>
       <c r="AD34" s="6">
         <f t="shared" ref="AD34:AD35" si="94" xml:space="preserve"> (F34 * R34 * 60) / 1000</f>
-        <v>24.667200000000001</v>
+        <v>29.203199999999995</v>
       </c>
       <c r="AE34" s="6">
         <f t="shared" ref="AE34:AE35" si="95" xml:space="preserve"> (G34 * S34 * 60) / 1000</f>
-        <v>24.878399999999999</v>
+        <v>29.127000000000002</v>
       </c>
       <c r="AF34" s="6">
         <f t="shared" ref="AF34:AF35" si="96" xml:space="preserve"> (H34 * T34 * 60) / 1000</f>
-        <v>24.753600000000002</v>
+        <v>26.913600000000002</v>
       </c>
       <c r="AG34" s="6">
         <f t="shared" ref="AG34:AG35" si="97" xml:space="preserve"> (I34 * U34 * 60) / 1000</f>
-        <v>24.276</v>
+        <v>27.341999999999999</v>
       </c>
       <c r="AH34" s="6">
         <f t="shared" ref="AH34:AH35" si="98" xml:space="preserve"> (J34 * V34 * 60) / 1000</f>
-        <v>24.495000000000001</v>
+        <v>23.855999999999998</v>
       </c>
       <c r="AK34" s="3" t="s">
         <v>1</v>
@@ -11616,35 +13652,35 @@
       </c>
       <c r="AM34" s="6">
         <f t="shared" ref="AM34:AM35" si="99">$N36/O36</f>
-        <v>1.3375796178343948</v>
+        <v>1.491132332878581</v>
       </c>
       <c r="AN34" s="6">
         <f t="shared" ref="AN34:AN35" si="100">$N36/P36</f>
-        <v>1.3461538461538463</v>
+        <v>2.2170385395537524</v>
       </c>
       <c r="AO34" s="6">
         <f t="shared" ref="AO34:AO35" si="101">$N36/Q36</f>
-        <v>1.1052631578947367</v>
+        <v>2.0128913443830569</v>
       </c>
       <c r="AP34" s="6">
         <f t="shared" ref="AP34:AP35" si="102">$N36/R36</f>
-        <v>1.1033274956217163</v>
+        <v>1.6168639053254439</v>
       </c>
       <c r="AQ34" s="6">
         <f t="shared" ref="AQ34" si="103">$N36/S36</f>
-        <v>1.1091549295774648</v>
+        <v>1.6436090225563909</v>
       </c>
       <c r="AR34" s="6">
         <f t="shared" ref="AR34:AR35" si="104">$N36/T36</f>
-        <v>1.0994764397905759</v>
+        <v>1.754414125200642</v>
       </c>
       <c r="AS34" s="6">
         <f t="shared" ref="AS34:AS35" si="105">$N36/U36</f>
-        <v>1.0899653979238753</v>
+        <v>1.6789554531490016</v>
       </c>
       <c r="AT34" s="6">
         <f>$N36/V36</f>
-        <v>1.0956521739130434</v>
+        <v>1.9517857142857145</v>
       </c>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.25">
@@ -11681,71 +13717,71 @@
       <c r="M35" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N35" s="11">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="O35" s="11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P35" s="11">
-        <v>4.03</v>
-      </c>
-      <c r="Q35" s="11">
-        <v>3.15</v>
-      </c>
-      <c r="R35" s="11">
-        <v>3.73</v>
-      </c>
-      <c r="S35" s="11">
+      <c r="N35" s="10">
+        <v>12.9</v>
+      </c>
+      <c r="O35" s="10">
+        <v>6.88</v>
+      </c>
+      <c r="P35" s="10">
         <v>3.83</v>
       </c>
-      <c r="T35" s="11">
-        <v>4.08</v>
-      </c>
-      <c r="U35" s="11">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="V35" s="11">
-        <v>3.41</v>
+      <c r="Q35" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="R35" s="10">
+        <v>4.58</v>
+      </c>
+      <c r="S35" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="T35" s="10">
+        <v>4.55</v>
+      </c>
+      <c r="U35" s="10">
+        <v>3.91</v>
+      </c>
+      <c r="V35" s="10">
+        <v>2.9</v>
       </c>
       <c r="Y35" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z35" s="6">
         <f xml:space="preserve"> (B35 * N35 * 60) / 1000</f>
-        <v>17.495999999999999</v>
+        <v>46.44</v>
       </c>
       <c r="AA35" s="6">
         <f t="shared" si="91"/>
-        <v>14.759999999999998</v>
+        <v>24.768000000000001</v>
       </c>
       <c r="AB35" s="6">
         <f t="shared" si="92"/>
-        <v>13.540800000000001</v>
+        <v>12.8688</v>
       </c>
       <c r="AC35" s="6">
         <f t="shared" si="93"/>
-        <v>10.206</v>
+        <v>13.932</v>
       </c>
       <c r="AD35" s="6">
         <f t="shared" si="94"/>
-        <v>12.085199999999999</v>
+        <v>14.839199999999998</v>
       </c>
       <c r="AE35" s="6">
         <f t="shared" si="95"/>
-        <v>12.409199999999998</v>
+        <v>14.58</v>
       </c>
       <c r="AF35" s="6">
         <f t="shared" si="96"/>
-        <v>13.219199999999999</v>
+        <v>14.742000000000001</v>
       </c>
       <c r="AG35" s="6">
         <f t="shared" si="97"/>
-        <v>13.959000000000001</v>
+        <v>12.903</v>
       </c>
       <c r="AH35" s="6">
         <f t="shared" si="98"/>
-        <v>11.048400000000001</v>
+        <v>9.3960000000000008</v>
       </c>
       <c r="AK35" s="4" t="s">
         <v>2</v>
@@ -11756,64 +13792,64 @@
       </c>
       <c r="AM35" s="6">
         <f t="shared" si="99"/>
-        <v>1.1853658536585368</v>
+        <v>1.875</v>
       </c>
       <c r="AN35" s="6">
         <f t="shared" si="100"/>
-        <v>1.2059553349875931</v>
+        <v>3.3681462140992169</v>
       </c>
       <c r="AO35" s="6">
         <f t="shared" si="101"/>
-        <v>1.5428571428571429</v>
+        <v>3</v>
       </c>
       <c r="AP35" s="6">
         <f t="shared" si="102"/>
-        <v>1.3029490616621986</v>
+        <v>2.8165938864628823</v>
       </c>
       <c r="AQ35" s="6">
         <f>$N37/S37</f>
-        <v>1.2689295039164492</v>
+        <v>2.8666666666666667</v>
       </c>
       <c r="AR35" s="6">
         <f t="shared" si="104"/>
-        <v>1.1911764705882353</v>
+        <v>2.8351648351648353</v>
       </c>
       <c r="AS35" s="6">
         <f t="shared" si="105"/>
-        <v>1.1489361702127658</v>
+        <v>3.2992327365728902</v>
       </c>
       <c r="AT35" s="6">
         <f>$N37/V37</f>
-        <v>1.4252199413489737</v>
+        <v>4.4482758620689662</v>
       </c>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N36" s="10">
-        <v>6.3</v>
+        <v>10.93</v>
       </c>
       <c r="O36" s="10">
-        <v>4.71</v>
+        <v>7.33</v>
       </c>
       <c r="P36" s="10">
-        <v>4.68</v>
+        <v>4.93</v>
       </c>
       <c r="Q36" s="10">
-        <v>5.7</v>
+        <v>5.43</v>
       </c>
       <c r="R36" s="10">
-        <v>5.71</v>
+        <v>6.76</v>
       </c>
       <c r="S36" s="10">
-        <v>5.68</v>
+        <v>6.65</v>
       </c>
       <c r="T36" s="10">
-        <v>5.73</v>
+        <v>6.23</v>
       </c>
       <c r="U36" s="10">
-        <v>5.78</v>
+        <v>6.51</v>
       </c>
       <c r="V36" s="10">
-        <v>5.75</v>
+        <v>5.6</v>
       </c>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
@@ -11835,32 +13871,32 @@
       <c r="AT36" s="5"/>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N37" s="11">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="O37" s="11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P37" s="11">
-        <v>4.03</v>
-      </c>
-      <c r="Q37" s="11">
-        <v>3.15</v>
-      </c>
-      <c r="R37" s="11">
-        <v>3.73</v>
-      </c>
-      <c r="S37" s="11">
+      <c r="N37" s="10">
+        <v>12.9</v>
+      </c>
+      <c r="O37" s="10">
+        <v>6.88</v>
+      </c>
+      <c r="P37" s="10">
         <v>3.83</v>
       </c>
-      <c r="T37" s="11">
-        <v>4.08</v>
-      </c>
-      <c r="U37" s="11">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="V37" s="11">
-        <v>3.41</v>
+      <c r="Q37" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="R37" s="10">
+        <v>4.58</v>
+      </c>
+      <c r="S37" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="T37" s="10">
+        <v>4.55</v>
+      </c>
+      <c r="U37" s="10">
+        <v>3.91</v>
+      </c>
+      <c r="V37" s="10">
+        <v>2.9</v>
       </c>
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
@@ -12038,70 +14074,70 @@
         <v>1</v>
       </c>
       <c r="N39" s="10">
-        <v>6.06</v>
+        <v>10.95</v>
       </c>
       <c r="O39" s="10">
+        <v>7.33</v>
+      </c>
+      <c r="P39" s="10">
+        <v>4.43</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="R39" s="10">
+        <v>6.28</v>
+      </c>
+      <c r="S39" s="10">
+        <v>6.75</v>
+      </c>
+      <c r="T39" s="10">
+        <v>6.38</v>
+      </c>
+      <c r="U39" s="10">
+        <v>6.46</v>
+      </c>
+      <c r="V39" s="10">
         <v>5.45</v>
-      </c>
-      <c r="P39" s="10">
-        <v>4.63</v>
-      </c>
-      <c r="Q39" s="10">
-        <v>4.78</v>
-      </c>
-      <c r="R39" s="10">
-        <v>5.56</v>
-      </c>
-      <c r="S39" s="10">
-        <v>5.75</v>
-      </c>
-      <c r="T39" s="10">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="U39" s="10">
-        <v>5.73</v>
-      </c>
-      <c r="V39" s="10">
-        <v>5.78</v>
       </c>
       <c r="Y39" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z39" s="6">
         <f xml:space="preserve"> (B39 * N39 * 60) / 1000</f>
-        <v>25.088399999999996</v>
+        <v>45.332999999999998</v>
       </c>
       <c r="AA39" s="6">
         <f t="shared" ref="AA39:AA40" si="106" xml:space="preserve"> (C39 * O39 * 60) / 1000</f>
-        <v>22.89</v>
+        <v>30.786000000000001</v>
       </c>
       <c r="AB39" s="6">
         <f t="shared" ref="AB39:AB40" si="107" xml:space="preserve"> (D39 * P39 * 60) / 1000</f>
-        <v>20.001600000000003</v>
+        <v>19.137599999999999</v>
       </c>
       <c r="AC39" s="6">
         <f t="shared" ref="AC39:AC40" si="108" xml:space="preserve"> (E39 * Q39 * 60) / 1000</f>
-        <v>20.649600000000003</v>
+        <v>24.192</v>
       </c>
       <c r="AD39" s="6">
         <f t="shared" ref="AD39:AD40" si="109" xml:space="preserve"> (F39 * R39 * 60) / 1000</f>
-        <v>23.685599999999997</v>
+        <v>26.752800000000001</v>
       </c>
       <c r="AE39" s="6">
         <f t="shared" ref="AE39:AE40" si="110" xml:space="preserve"> (G39 * S39 * 60) / 1000</f>
-        <v>24.84</v>
+        <v>29.16</v>
       </c>
       <c r="AF39" s="6">
         <f t="shared" ref="AF39:AF40" si="111" xml:space="preserve"> (H39 * T39 * 60) / 1000</f>
-        <v>21.513600000000004</v>
+        <v>27.561600000000002</v>
       </c>
       <c r="AG39" s="6">
         <f t="shared" ref="AG39:AG40" si="112" xml:space="preserve"> (I39 * U39 * 60) / 1000</f>
-        <v>24.753600000000002</v>
+        <v>27.9072</v>
       </c>
       <c r="AH39" s="6">
         <f t="shared" ref="AH39:AH40" si="113" xml:space="preserve"> (J39 * V39 * 60) / 1000</f>
-        <v>24.969600000000003</v>
+        <v>23.544000000000004</v>
       </c>
       <c r="AK39" s="3" t="s">
         <v>1</v>
@@ -12112,35 +14148,35 @@
       </c>
       <c r="AM39" s="6">
         <f t="shared" ref="AM39:AM40" si="114">$N41/O41</f>
-        <v>1.1119266055045871</v>
+        <v>1.4938608458390177</v>
       </c>
       <c r="AN39" s="6">
         <f t="shared" ref="AN39:AN40" si="115">$N41/P41</f>
-        <v>1.3088552915766738</v>
+        <v>2.4717832957110608</v>
       </c>
       <c r="AO39" s="6">
         <f t="shared" ref="AO39:AO40" si="116">$N41/Q41</f>
-        <v>1.2677824267782425</v>
+        <v>1.9553571428571428</v>
       </c>
       <c r="AP39" s="6">
         <f t="shared" ref="AP39:AP40" si="117">$N41/R41</f>
-        <v>1.0899280575539569</v>
+        <v>1.7436305732484074</v>
       </c>
       <c r="AQ39" s="6">
         <f t="shared" ref="AQ39" si="118">$N41/S41</f>
-        <v>1.0539130434782609</v>
+        <v>1.622222222222222</v>
       </c>
       <c r="AR39" s="6">
         <f t="shared" ref="AR39:AR40" si="119">$N41/T41</f>
-        <v>1.2168674698795179</v>
+        <v>1.7163009404388714</v>
       </c>
       <c r="AS39" s="6">
         <f t="shared" ref="AS39:AS40" si="120">$N41/U41</f>
-        <v>1.0575916230366491</v>
+        <v>1.6950464396284828</v>
       </c>
       <c r="AT39" s="6">
         <f>$N41/V41</f>
-        <v>1.0484429065743943</v>
+        <v>2.0091743119266052</v>
       </c>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.25">
@@ -12177,71 +14213,71 @@
       <c r="M40" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N40" s="11">
-        <v>5.4</v>
-      </c>
-      <c r="O40" s="11">
-        <v>3.91</v>
-      </c>
-      <c r="P40" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q40" s="11">
-        <v>3.68</v>
-      </c>
-      <c r="R40" s="11">
-        <v>3.43</v>
-      </c>
-      <c r="S40" s="11">
-        <v>3.41</v>
-      </c>
-      <c r="T40" s="11">
-        <v>4.16</v>
-      </c>
-      <c r="U40" s="11">
-        <v>3.58</v>
-      </c>
-      <c r="V40" s="11">
-        <v>3.81</v>
+      <c r="N40" s="10">
+        <v>12.9</v>
+      </c>
+      <c r="O40" s="10">
+        <v>6.86</v>
+      </c>
+      <c r="P40" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>3.08</v>
+      </c>
+      <c r="R40" s="10">
+        <v>4.13</v>
+      </c>
+      <c r="S40" s="10">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="T40" s="10">
+        <v>4.45</v>
+      </c>
+      <c r="U40" s="10">
+        <v>3.83</v>
+      </c>
+      <c r="V40" s="10">
+        <v>3.46</v>
       </c>
       <c r="Y40" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z40" s="6">
         <f xml:space="preserve"> (B40 * N40 * 60) / 1000</f>
-        <v>19.440000000000001</v>
+        <v>46.44</v>
       </c>
       <c r="AA40" s="6">
         <f t="shared" si="106"/>
-        <v>13.8414</v>
+        <v>24.284400000000002</v>
       </c>
       <c r="AB40" s="6">
         <f t="shared" si="107"/>
-        <v>12.96</v>
+        <v>11.664</v>
       </c>
       <c r="AC40" s="6">
         <f t="shared" si="108"/>
-        <v>11.923200000000001</v>
+        <v>9.9791999999999987</v>
       </c>
       <c r="AD40" s="6">
         <f t="shared" si="109"/>
-        <v>11.113200000000001</v>
+        <v>13.3812</v>
       </c>
       <c r="AE40" s="6">
         <f t="shared" si="110"/>
-        <v>10.639199999999999</v>
+        <v>12.948</v>
       </c>
       <c r="AF40" s="6">
         <f t="shared" si="111"/>
-        <v>13.228800000000001</v>
+        <v>14.151000000000002</v>
       </c>
       <c r="AG40" s="6">
         <f t="shared" si="112"/>
-        <v>11.169600000000001</v>
+        <v>11.9496</v>
       </c>
       <c r="AH40" s="6">
         <f t="shared" si="113"/>
-        <v>12.344400000000002</v>
+        <v>11.2104</v>
       </c>
       <c r="AK40" s="4" t="s">
         <v>2</v>
@@ -12252,93 +14288,93 @@
       </c>
       <c r="AM40" s="6">
         <f t="shared" si="114"/>
-        <v>1.381074168797954</v>
+        <v>1.880466472303207</v>
       </c>
       <c r="AN40" s="6">
         <f t="shared" si="115"/>
-        <v>1.35</v>
+        <v>3.5833333333333335</v>
       </c>
       <c r="AO40" s="6">
         <f t="shared" si="116"/>
-        <v>1.4673913043478262</v>
+        <v>4.1883116883116882</v>
       </c>
       <c r="AP40" s="6">
         <f t="shared" si="117"/>
-        <v>1.5743440233236152</v>
+        <v>3.1234866828087169</v>
       </c>
       <c r="AQ40" s="6">
         <f>$N42/S42</f>
-        <v>1.5835777126099708</v>
+        <v>3.1084337349397591</v>
       </c>
       <c r="AR40" s="6">
         <f t="shared" si="119"/>
-        <v>1.2980769230769231</v>
+        <v>2.898876404494382</v>
       </c>
       <c r="AS40" s="6">
         <f t="shared" si="120"/>
-        <v>1.5083798882681565</v>
+        <v>3.3681462140992169</v>
       </c>
       <c r="AT40" s="6">
         <f>$N42/V42</f>
-        <v>1.4173228346456694</v>
+        <v>3.7283236994219653</v>
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N41" s="10">
-        <v>6.06</v>
+        <v>10.95</v>
       </c>
       <c r="O41" s="10">
+        <v>7.33</v>
+      </c>
+      <c r="P41" s="10">
+        <v>4.43</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="R41" s="10">
+        <v>6.28</v>
+      </c>
+      <c r="S41" s="10">
+        <v>6.75</v>
+      </c>
+      <c r="T41" s="10">
+        <v>6.38</v>
+      </c>
+      <c r="U41" s="10">
+        <v>6.46</v>
+      </c>
+      <c r="V41" s="10">
         <v>5.45</v>
-      </c>
-      <c r="P41" s="10">
-        <v>4.63</v>
-      </c>
-      <c r="Q41" s="10">
-        <v>4.78</v>
-      </c>
-      <c r="R41" s="10">
-        <v>5.56</v>
-      </c>
-      <c r="S41" s="10">
-        <v>5.75</v>
-      </c>
-      <c r="T41" s="10">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="U41" s="10">
-        <v>5.73</v>
-      </c>
-      <c r="V41" s="10">
-        <v>5.78</v>
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N42" s="11">
-        <v>5.4</v>
-      </c>
-      <c r="O42" s="11">
-        <v>3.91</v>
-      </c>
-      <c r="P42" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="11">
-        <v>3.68</v>
-      </c>
-      <c r="R42" s="11">
-        <v>3.43</v>
-      </c>
-      <c r="S42" s="11">
-        <v>3.41</v>
-      </c>
-      <c r="T42" s="11">
-        <v>4.16</v>
-      </c>
-      <c r="U42" s="11">
-        <v>3.58</v>
-      </c>
-      <c r="V42" s="11">
-        <v>3.81</v>
+      <c r="N42" s="10">
+        <v>12.9</v>
+      </c>
+      <c r="O42" s="10">
+        <v>6.86</v>
+      </c>
+      <c r="P42" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>3.08</v>
+      </c>
+      <c r="R42" s="10">
+        <v>4.13</v>
+      </c>
+      <c r="S42" s="10">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="T42" s="10">
+        <v>4.45</v>
+      </c>
+      <c r="U42" s="10">
+        <v>3.83</v>
+      </c>
+      <c r="V42" s="10">
+        <v>3.46</v>
       </c>
     </row>
   </sheetData>

--- a/EJBComponents/ImageProcessingBenchmark_5/stats/ExcelSheets/PowerConsumption.xlsx
+++ b/EJBComponents/ImageProcessingBenchmark_5/stats/ExcelSheets/PowerConsumption.xlsx
@@ -337,31 +337,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>46.762800000000006</c:v>
+                  <c:v>12.989666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.176000000000002</c:v>
+                  <c:v>15.326666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>16.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.694400000000002</c:v>
+                  <c:v>12.970666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.16340000000001</c:v>
+                  <c:v>13.656500000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.256999999999998</c:v>
+                  <c:v>13.682499999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.210200000000007</c:v>
+                  <c:v>13.669500000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.327199999999998</c:v>
+                  <c:v>13.702</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.327199999999998</c:v>
+                  <c:v>13.702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -440,31 +440,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>46.44</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.68</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.794</c:v>
+                  <c:v>6.331666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.06</c:v>
+                  <c:v>5.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.348800000000001</c:v>
+                  <c:v>5.3746666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.617999999999995</c:v>
+                  <c:v>5.171666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.72</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.5564</c:v>
+                  <c:v>4.5990000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.108000000000001</c:v>
+                  <c:v>5.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -507,31 +507,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>37.720199999999998</c:v>
+                  <c:v>10.477833333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.456400000000002</c:v>
+                  <c:v>9.8490000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.630000000000003</c:v>
+                  <c:v>10.175000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.589999999999996</c:v>
+                  <c:v>7.1083333333333325</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.8</c:v>
+                  <c:v>8.8333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.83</c:v>
+                  <c:v>8.8416666666666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.89</c:v>
+                  <c:v>8.8583333333333325</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.83</c:v>
+                  <c:v>8.8416666666666668</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.89</c:v>
+                  <c:v>8.8583333333333325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -574,31 +574,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>47.839199999999998</c:v>
+                  <c:v>13.288666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.768000000000001</c:v>
+                  <c:v>6.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.839199999999998</c:v>
+                  <c:v>4.1219999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.629600000000003</c:v>
+                  <c:v>4.6193333333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.247199999999999</c:v>
+                  <c:v>3.4019999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.48</c:v>
+                  <c:v>2.6333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.606399999999999</c:v>
+                  <c:v>3.2239999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.713999999999999</c:v>
+                  <c:v>4.3649999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.24</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -640,31 +640,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>39.893999999999998</c:v>
+                  <c:v>11.081666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.453600000000009</c:v>
+                  <c:v>10.126000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.32</c:v>
+                  <c:v>7.8666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.638200000000001</c:v>
+                  <c:v>5.7328333333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.076000000000001</c:v>
+                  <c:v>8.91</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.436</c:v>
+                  <c:v>9.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.635999999999996</c:v>
+                  <c:v>8.51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.716000000000001</c:v>
+                  <c:v>8.81</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.14</c:v>
+                  <c:v>8.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -707,31 +707,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>47.913600000000002</c:v>
+                  <c:v>13.309333333333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.942400000000003</c:v>
+                  <c:v>6.6506666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.952000000000002</c:v>
+                  <c:v>4.1533333333333342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.5564</c:v>
+                  <c:v>4.5990000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.77</c:v>
+                  <c:v>3.8250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.882999999999997</c:v>
+                  <c:v>4.1341666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.948</c:v>
+                  <c:v>3.5966666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.86</c:v>
+                  <c:v>3.85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.25</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -773,31 +773,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>45.167399999999994</c:v>
+                  <c:v>12.546499999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.87</c:v>
+                  <c:v>8.5749999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.129600000000003</c:v>
+                  <c:v>5.8693333333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.669800000000002</c:v>
+                  <c:v>7.9638333333333344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.69</c:v>
+                  <c:v>7.6916666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.283199999999997</c:v>
+                  <c:v>8.411999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.339200000000002</c:v>
+                  <c:v>7.8719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.002999999999997</c:v>
+                  <c:v>8.3341666666666665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.127000000000002</c:v>
+                  <c:v>8.0908333333333342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,31 +840,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>47.913600000000002</c:v>
+                  <c:v>13.309333333333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.26</c:v>
+                  <c:v>7.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.5</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.8688</c:v>
+                  <c:v>3.5746666666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.235999999999997</c:v>
+                  <c:v>4.51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.176000000000002</c:v>
+                  <c:v>3.6600000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.894400000000001</c:v>
+                  <c:v>4.1373333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.6508</c:v>
+                  <c:v>4.0696666666666665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.18</c:v>
+                  <c:v>3.3833333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -907,31 +907,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>43.480800000000002</c:v>
+                  <c:v>12.078000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.129600000000003</c:v>
+                  <c:v>5.8693333333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.243800000000004</c:v>
+                  <c:v>7.8455000000000013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.857599999999998</c:v>
+                  <c:v>8.016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.209600000000002</c:v>
+                  <c:v>7.8360000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.721600000000002</c:v>
+                  <c:v>8.2560000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.993600000000001</c:v>
+                  <c:v>7.7760000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.375999999999998</c:v>
+                  <c:v>8.1599999999999984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,31 +974,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>48.025199999999998</c:v>
+                  <c:v>13.340333333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.308</c:v>
+                  <c:v>7.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.052000000000003</c:v>
+                  <c:v>4.7366666666666672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.036799999999999</c:v>
+                  <c:v>3.6213333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.478400000000001</c:v>
+                  <c:v>3.7440000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.826000000000001</c:v>
+                  <c:v>3.2850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.592000000000002</c:v>
+                  <c:v>3.2200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.932</c:v>
+                  <c:v>3.87</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5500000000000007</c:v>
+                  <c:v>2.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1041,31 +1041,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>43.938600000000001</c:v>
+                  <c:v>12.205166666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.225799999999996</c:v>
+                  <c:v>8.6738333333333326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.655999999999995</c:v>
+                  <c:v>5.4599999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.513600000000004</c:v>
+                  <c:v>5.9760000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.123199999999997</c:v>
+                  <c:v>7.8119999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.864000000000004</c:v>
+                  <c:v>7.7400000000000011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.345599999999997</c:v>
+                  <c:v>7.5959999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.073600000000003</c:v>
+                  <c:v>8.0760000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.038799999999998</c:v>
+                  <c:v>6.3996666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1108,31 +1108,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>47.140800000000006</c:v>
+                  <c:v>13.094666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.04</c:v>
+                  <c:v>7.2333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.220800000000001</c:v>
+                  <c:v>4.2280000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.038</c:v>
+                  <c:v>4.4550000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.7296</c:v>
+                  <c:v>3.536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.122</c:v>
+                  <c:v>3.645</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.029199999999999</c:v>
+                  <c:v>3.8969999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.876799999999999</c:v>
+                  <c:v>3.8546666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.478400000000001</c:v>
+                  <c:v>3.7440000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,31 +1175,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>43.938600000000001</c:v>
+                  <c:v>12.205166666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.786000000000001</c:v>
+                  <c:v>8.5516666666666659</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.297599999999999</c:v>
+                  <c:v>5.9159999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.457599999999999</c:v>
+                  <c:v>6.516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.203199999999995</c:v>
+                  <c:v>8.1119999999999983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.127000000000002</c:v>
+                  <c:v>8.0908333333333342</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.913600000000002</c:v>
+                  <c:v>7.4760000000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.341999999999999</c:v>
+                  <c:v>7.5949999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.855999999999998</c:v>
+                  <c:v>6.626666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1242,31 +1242,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>46.44</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.768000000000001</c:v>
+                  <c:v>6.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.8688</c:v>
+                  <c:v>3.5746666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.932</c:v>
+                  <c:v>3.87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.839199999999998</c:v>
+                  <c:v>4.1219999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.58</c:v>
+                  <c:v>4.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.742000000000001</c:v>
+                  <c:v>4.0949999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.903</c:v>
+                  <c:v>3.5841666666666665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3960000000000008</c:v>
+                  <c:v>2.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,31 +1309,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>45.332999999999998</c:v>
+                  <c:v>12.592499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.786000000000001</c:v>
+                  <c:v>8.5516666666666659</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.137599999999999</c:v>
+                  <c:v>5.3159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.192</c:v>
+                  <c:v>6.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.752800000000001</c:v>
+                  <c:v>7.4313333333333329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.16</c:v>
+                  <c:v>8.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.561600000000002</c:v>
+                  <c:v>7.6560000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.9072</c:v>
+                  <c:v>7.7519999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.544000000000004</c:v>
+                  <c:v>6.5400000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1376,31 +1376,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>46.44</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.284400000000002</c:v>
+                  <c:v>6.7456666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.664</c:v>
+                  <c:v>3.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9791999999999987</c:v>
+                  <c:v>2.7719999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.3812</c:v>
+                  <c:v>3.7169999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.948</c:v>
+                  <c:v>3.5966666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.151000000000002</c:v>
+                  <c:v>3.9308333333333336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.9496</c:v>
+                  <c:v>3.3193333333333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.2104</c:v>
+                  <c:v>3.1139999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1417,11 +1417,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111804800"/>
-        <c:axId val="111807104"/>
+        <c:axId val="112333184"/>
+        <c:axId val="112335488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111804800"/>
+        <c:axId val="112333184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,7 +1537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111807104"/>
+        <c:crossAx val="112335488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1545,7 +1545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111807104"/>
+        <c:axId val="112335488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -1655,7 +1655,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111804800"/>
+        <c:crossAx val="112333184"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -2398,11 +2398,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112144768"/>
-        <c:axId val="112147072"/>
+        <c:axId val="112669056"/>
+        <c:axId val="112671360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112144768"/>
+        <c:axId val="112669056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2518,7 +2518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112147072"/>
+        <c:crossAx val="112671360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2526,7 +2526,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112147072"/>
+        <c:axId val="112671360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -2636,7 +2636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112144768"/>
+        <c:crossAx val="112669056"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.5"/>
@@ -3947,11 +3947,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112228992"/>
-        <c:axId val="112239744"/>
+        <c:axId val="112822912"/>
+        <c:axId val="112833664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112228992"/>
+        <c:axId val="112822912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4067,7 +4067,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112239744"/>
+        <c:crossAx val="112833664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4075,7 +4075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112239744"/>
+        <c:axId val="112833664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="74"/>
@@ -4185,7 +4185,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112228992"/>
+        <c:crossAx val="112822912"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -4933,11 +4933,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111897216"/>
-        <c:axId val="111912064"/>
+        <c:axId val="112962176"/>
+        <c:axId val="112972928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111897216"/>
+        <c:axId val="112962176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5053,7 +5053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111912064"/>
+        <c:crossAx val="112972928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5061,7 +5061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111912064"/>
+        <c:axId val="112972928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -5171,7 +5171,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111897216"/>
+        <c:crossAx val="112962176"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.5"/>
@@ -6482,11 +6482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112077440"/>
-        <c:axId val="112084096"/>
+        <c:axId val="113015424"/>
+        <c:axId val="113022080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112077440"/>
+        <c:axId val="113015424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6602,7 +6602,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112084096"/>
+        <c:crossAx val="113022080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6610,7 +6610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112084096"/>
+        <c:axId val="113022080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22.5"/>
@@ -6720,7 +6720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112077440"/>
+        <c:crossAx val="113015424"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.5"/>
@@ -6876,10 +6876,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.4339984925763417E-2"/>
-          <c:y val="5.273289031240392E-2"/>
-          <c:w val="0.89118525893932821"/>
-          <c:h val="0.87509493507839109"/>
+          <c:x val="9.4360908447921027E-2"/>
+          <c:y val="4.8418560225386952E-2"/>
+          <c:w val="0.88116426267043158"/>
+          <c:h val="0.87940926516540807"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -6957,31 +6957,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>46.762800000000006</c:v>
+                  <c:v>12.989666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.176000000000002</c:v>
+                  <c:v>15.326666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>16.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.694400000000002</c:v>
+                  <c:v>12.970666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.16340000000001</c:v>
+                  <c:v>13.656500000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.256999999999998</c:v>
+                  <c:v>13.682499999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.210200000000007</c:v>
+                  <c:v>13.669500000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.327199999999998</c:v>
+                  <c:v>13.702</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.327199999999998</c:v>
+                  <c:v>13.702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7024,31 +7024,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>37.720199999999998</c:v>
+                  <c:v>10.477833333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.456400000000002</c:v>
+                  <c:v>9.8490000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.630000000000003</c:v>
+                  <c:v>10.175000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.589999999999996</c:v>
+                  <c:v>7.1083333333333325</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.8</c:v>
+                  <c:v>8.8333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.83</c:v>
+                  <c:v>8.8416666666666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.89</c:v>
+                  <c:v>8.8583333333333325</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.83</c:v>
+                  <c:v>8.8416666666666668</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.89</c:v>
+                  <c:v>8.8583333333333325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7090,31 +7090,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>39.893999999999998</c:v>
+                  <c:v>11.081666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.453600000000009</c:v>
+                  <c:v>10.126000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.32</c:v>
+                  <c:v>7.8666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.638200000000001</c:v>
+                  <c:v>5.7328333333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.076000000000001</c:v>
+                  <c:v>8.91</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.436</c:v>
+                  <c:v>9.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.635999999999996</c:v>
+                  <c:v>8.51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.716000000000001</c:v>
+                  <c:v>8.81</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.14</c:v>
+                  <c:v>8.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7156,31 +7156,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>45.167399999999994</c:v>
+                  <c:v>12.546499999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.87</c:v>
+                  <c:v>8.5749999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.129600000000003</c:v>
+                  <c:v>5.8693333333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.669800000000002</c:v>
+                  <c:v>7.9638333333333344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.69</c:v>
+                  <c:v>7.6916666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.283199999999997</c:v>
+                  <c:v>8.411999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.339200000000002</c:v>
+                  <c:v>7.8719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.002999999999997</c:v>
+                  <c:v>8.3341666666666665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.127000000000002</c:v>
+                  <c:v>8.0908333333333342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7223,31 +7223,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>43.480800000000002</c:v>
+                  <c:v>12.078000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.129600000000003</c:v>
+                  <c:v>5.8693333333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.243800000000004</c:v>
+                  <c:v>7.8455000000000013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.857599999999998</c:v>
+                  <c:v>8.016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.209600000000002</c:v>
+                  <c:v>7.8360000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.721600000000002</c:v>
+                  <c:v>8.2560000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.993600000000001</c:v>
+                  <c:v>7.7760000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.375999999999998</c:v>
+                  <c:v>8.1599999999999984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7290,31 +7290,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>43.938600000000001</c:v>
+                  <c:v>12.205166666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.225799999999996</c:v>
+                  <c:v>8.6738333333333326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.655999999999995</c:v>
+                  <c:v>5.4599999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.513600000000004</c:v>
+                  <c:v>5.9760000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.123199999999997</c:v>
+                  <c:v>7.8119999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.864000000000004</c:v>
+                  <c:v>7.7400000000000011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.345599999999997</c:v>
+                  <c:v>7.5959999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.073600000000003</c:v>
+                  <c:v>8.0760000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.038799999999998</c:v>
+                  <c:v>6.3996666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7357,31 +7357,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>43.938600000000001</c:v>
+                  <c:v>12.205166666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.786000000000001</c:v>
+                  <c:v>8.5516666666666659</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.297599999999999</c:v>
+                  <c:v>5.9159999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.457599999999999</c:v>
+                  <c:v>6.516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.203199999999995</c:v>
+                  <c:v>8.1119999999999983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.127000000000002</c:v>
+                  <c:v>8.0908333333333342</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.913600000000002</c:v>
+                  <c:v>7.4760000000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.341999999999999</c:v>
+                  <c:v>7.5949999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.855999999999998</c:v>
+                  <c:v>6.626666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7424,31 +7424,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>45.332999999999998</c:v>
+                  <c:v>12.592499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.786000000000001</c:v>
+                  <c:v>8.5516666666666659</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.137599999999999</c:v>
+                  <c:v>5.3159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.192</c:v>
+                  <c:v>6.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.752800000000001</c:v>
+                  <c:v>7.4313333333333329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.16</c:v>
+                  <c:v>8.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.561600000000002</c:v>
+                  <c:v>7.6560000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.9072</c:v>
+                  <c:v>7.7519999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.544000000000004</c:v>
+                  <c:v>6.5400000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7465,11 +7465,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40440960"/>
-        <c:axId val="40443264"/>
+        <c:axId val="113400448"/>
+        <c:axId val="113407104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40440960"/>
+        <c:axId val="113400448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7536,7 +7536,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.43478819730929541"/>
+              <c:x val="0.43979870088432066"/>
               <c:y val="0.96759938104650245"/>
             </c:manualLayout>
           </c:layout>
@@ -7585,7 +7585,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40443264"/>
+        <c:crossAx val="113407104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7593,10 +7593,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40443264"/>
+        <c:axId val="113407104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60"/>
+          <c:max val="17.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7647,7 +7647,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
-                  <a:t>Energy Consumption (Kilo Watts)</a:t>
+                  <a:t>Energy Consumption (KWh/10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="30000"/>
+                  <a:t>-3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+                  <a:t>)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-NZ" sz="1600"/>
               </a:p>
@@ -7657,8 +7665,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="6.4825864740423675E-4"/>
-              <c:y val="0.34054955053399744"/>
+              <c:x val="6.4830521890139642E-4"/>
+              <c:y val="0.32904467030195217"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7670,7 +7678,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7703,11 +7711,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40440960"/>
+        <c:crossAx val="113400448"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5"/>
-        <c:minorUnit val="1"/>
+        <c:majorUnit val="1.25"/>
+        <c:minorUnit val="0.62500000000000011"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7859,9 +7867,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.4339984925763417E-2"/>
+          <c:x val="9.3115408309831074E-2"/>
           <c:y val="5.273289031240392E-2"/>
-          <c:w val="0.89118525893932821"/>
+          <c:w val="0.8824098800275878"/>
           <c:h val="0.87509493507839109"/>
         </c:manualLayout>
       </c:layout>
@@ -7940,31 +7948,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>46.44</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.68</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.794</c:v>
+                  <c:v>6.331666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.06</c:v>
+                  <c:v>5.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.348800000000001</c:v>
+                  <c:v>5.3746666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.617999999999995</c:v>
+                  <c:v>5.171666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.72</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.5564</c:v>
+                  <c:v>4.5990000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.108000000000001</c:v>
+                  <c:v>5.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8007,31 +8015,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>47.839199999999998</c:v>
+                  <c:v>13.288666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.768000000000001</c:v>
+                  <c:v>6.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.839199999999998</c:v>
+                  <c:v>4.1219999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.629600000000003</c:v>
+                  <c:v>4.6193333333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.247199999999999</c:v>
+                  <c:v>3.4019999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.48</c:v>
+                  <c:v>2.6333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.606399999999999</c:v>
+                  <c:v>3.2239999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.713999999999999</c:v>
+                  <c:v>4.3649999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.24</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8074,31 +8082,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>47.913600000000002</c:v>
+                  <c:v>13.309333333333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.942400000000003</c:v>
+                  <c:v>6.6506666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.952000000000002</c:v>
+                  <c:v>4.1533333333333342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.5564</c:v>
+                  <c:v>4.5990000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.77</c:v>
+                  <c:v>3.8250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.882999999999997</c:v>
+                  <c:v>4.1341666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.948</c:v>
+                  <c:v>3.5966666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.86</c:v>
+                  <c:v>3.85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.25</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8141,31 +8149,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>47.913600000000002</c:v>
+                  <c:v>13.309333333333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.26</c:v>
+                  <c:v>7.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.5</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.8688</c:v>
+                  <c:v>3.5746666666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.235999999999997</c:v>
+                  <c:v>4.51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.176000000000002</c:v>
+                  <c:v>3.6600000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.894400000000001</c:v>
+                  <c:v>4.1373333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.6508</c:v>
+                  <c:v>4.0696666666666665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.18</c:v>
+                  <c:v>3.3833333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8208,31 +8216,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>48.025199999999998</c:v>
+                  <c:v>13.340333333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.308</c:v>
+                  <c:v>7.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.052000000000003</c:v>
+                  <c:v>4.7366666666666672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.036799999999999</c:v>
+                  <c:v>3.6213333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.478400000000001</c:v>
+                  <c:v>3.7440000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.826000000000001</c:v>
+                  <c:v>3.2850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.592000000000002</c:v>
+                  <c:v>3.2200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.932</c:v>
+                  <c:v>3.87</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5500000000000007</c:v>
+                  <c:v>2.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8275,31 +8283,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>47.140800000000006</c:v>
+                  <c:v>13.094666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.04</c:v>
+                  <c:v>7.2333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.220800000000001</c:v>
+                  <c:v>4.2280000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.038</c:v>
+                  <c:v>4.4550000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.7296</c:v>
+                  <c:v>3.536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.122</c:v>
+                  <c:v>3.645</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.029199999999999</c:v>
+                  <c:v>3.8969999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.876799999999999</c:v>
+                  <c:v>3.8546666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.478400000000001</c:v>
+                  <c:v>3.7440000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8342,31 +8350,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>46.44</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.768000000000001</c:v>
+                  <c:v>6.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.8688</c:v>
+                  <c:v>3.5746666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.932</c:v>
+                  <c:v>3.87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.839199999999998</c:v>
+                  <c:v>4.1219999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.58</c:v>
+                  <c:v>4.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.742000000000001</c:v>
+                  <c:v>4.0949999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.903</c:v>
+                  <c:v>3.5841666666666665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3960000000000008</c:v>
+                  <c:v>2.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8409,31 +8417,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>46.44</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.284400000000002</c:v>
+                  <c:v>6.7456666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.664</c:v>
+                  <c:v>3.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9791999999999987</c:v>
+                  <c:v>2.7719999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.3812</c:v>
+                  <c:v>3.7169999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.948</c:v>
+                  <c:v>3.5966666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.151000000000002</c:v>
+                  <c:v>3.9308333333333336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.9496</c:v>
+                  <c:v>3.3193333333333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.2104</c:v>
+                  <c:v>3.1139999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8450,11 +8458,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41704064"/>
-        <c:axId val="41718912"/>
+        <c:axId val="113453696"/>
+        <c:axId val="113464448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41704064"/>
+        <c:axId val="113453696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8570,7 +8578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41718912"/>
+        <c:crossAx val="113464448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8578,10 +8586,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41718912"/>
+        <c:axId val="113464448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60"/>
+          <c:max val="17.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8631,10 +8639,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
-                  <a:t>Energy Consumption (Kilo Watts)</a:t>
+                  <a:rPr lang="en-NZ" sz="1600" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Energy Consumption (KWh/10</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-NZ" sz="1600"/>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" b="0" i="0" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>-3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -8642,8 +8666,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="6.4825864740423675E-4"/>
-              <c:y val="0.34054955053399744"/>
+              <c:x val="6.4823540688049516E-4"/>
+              <c:y val="0.33192089035996347"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8655,7 +8679,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8688,11 +8712,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41704064"/>
+        <c:crossAx val="113453696"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5"/>
-        <c:minorUnit val="1"/>
+        <c:majorUnit val="1.25"/>
+        <c:minorUnit val="0.62500000000000011"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -10374,7 +10398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10384,8 +10408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K84" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U146" sqref="U146"/>
+    <sheetView tabSelected="1" topLeftCell="E79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE138" sqref="AE138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10632,40 +10656,40 @@
         <v>1</v>
       </c>
       <c r="Z4" s="6">
-        <f xml:space="preserve"> (B4 * N4 * 60) / 1000</f>
-        <v>46.762800000000006</v>
+        <f xml:space="preserve"> (B4 * N4 * 60) / 3600</f>
+        <v>12.989666666666668</v>
       </c>
       <c r="AA4" s="6">
-        <f t="shared" ref="AA4:AH4" si="0" xml:space="preserve"> (C4 * O4 * 60) / 1000</f>
-        <v>55.176000000000002</v>
+        <f t="shared" ref="AA4:AH4" si="0" xml:space="preserve"> (C4 * O4 * 60) / 3600</f>
+        <v>15.326666666666666</v>
       </c>
       <c r="AB4" s="6">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="AC4" s="6">
         <f t="shared" si="0"/>
-        <v>46.694400000000002</v>
+        <v>12.970666666666666</v>
       </c>
       <c r="AD4" s="6">
         <f t="shared" si="0"/>
-        <v>49.16340000000001</v>
+        <v>13.656500000000003</v>
       </c>
       <c r="AE4" s="6">
         <f t="shared" si="0"/>
-        <v>49.256999999999998</v>
+        <v>13.682499999999999</v>
       </c>
       <c r="AF4" s="6">
         <f t="shared" si="0"/>
-        <v>49.210200000000007</v>
+        <v>13.669500000000001</v>
       </c>
       <c r="AG4" s="6">
         <f t="shared" si="0"/>
-        <v>49.327199999999998</v>
+        <v>13.702</v>
       </c>
       <c r="AH4" s="6">
         <f t="shared" si="0"/>
-        <v>49.327199999999998</v>
+        <v>13.702</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>1</v>
@@ -10772,40 +10796,40 @@
         <v>2</v>
       </c>
       <c r="Z5" s="6">
-        <f xml:space="preserve"> (B5 * N5 * 60) / 1000</f>
-        <v>46.44</v>
+        <f xml:space="preserve"> (B5 * N5 * 60) / 3600</f>
+        <v>12.9</v>
       </c>
       <c r="AA5" s="6">
-        <f t="shared" ref="AA5" si="2" xml:space="preserve"> (C5 * O5 * 60) / 1000</f>
-        <v>31.68</v>
+        <f t="shared" ref="AA5" si="2" xml:space="preserve"> (C5 * O5 * 60) / 3600</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AB5" s="6">
-        <f t="shared" ref="AB5" si="3" xml:space="preserve"> (D5 * P5 * 60) / 1000</f>
-        <v>22.794</v>
+        <f t="shared" ref="AB5" si="3" xml:space="preserve"> (D5 * P5 * 60) / 3600</f>
+        <v>6.331666666666667</v>
       </c>
       <c r="AC5" s="6">
-        <f t="shared" ref="AC5" si="4" xml:space="preserve"> (E5 * Q5 * 60) / 1000</f>
-        <v>21.06</v>
+        <f t="shared" ref="AC5" si="4" xml:space="preserve"> (E5 * Q5 * 60) / 3600</f>
+        <v>5.85</v>
       </c>
       <c r="AD5" s="6">
-        <f t="shared" ref="AD5" si="5" xml:space="preserve"> (F5 * R5 * 60) / 1000</f>
-        <v>19.348800000000001</v>
+        <f t="shared" ref="AD5" si="5" xml:space="preserve"> (F5 * R5 * 60) / 3600</f>
+        <v>5.3746666666666663</v>
       </c>
       <c r="AE5" s="6">
-        <f t="shared" ref="AE5" si="6" xml:space="preserve"> (G5 * S5 * 60) / 1000</f>
-        <v>18.617999999999995</v>
+        <f t="shared" ref="AE5" si="6" xml:space="preserve"> (G5 * S5 * 60) / 3600</f>
+        <v>5.171666666666666</v>
       </c>
       <c r="AF5" s="6">
-        <f t="shared" ref="AF5" si="7" xml:space="preserve"> (H5 * T5 * 60) / 1000</f>
-        <v>18.72</v>
+        <f t="shared" ref="AF5" si="7" xml:space="preserve"> (H5 * T5 * 60) / 3600</f>
+        <v>5.2</v>
       </c>
       <c r="AG5" s="6">
-        <f t="shared" ref="AG5" si="8" xml:space="preserve"> (I5 * U5 * 60) / 1000</f>
-        <v>16.5564</v>
+        <f t="shared" ref="AG5" si="8" xml:space="preserve"> (I5 * U5 * 60) / 3600</f>
+        <v>4.5990000000000002</v>
       </c>
       <c r="AH5" s="6">
-        <f t="shared" ref="AH5" si="9" xml:space="preserve"> (J5 * V5 * 60) / 1000</f>
-        <v>18.108000000000001</v>
+        <f t="shared" ref="AH5" si="9" xml:space="preserve"> (J5 * V5 * 60) / 3600</f>
+        <v>5.03</v>
       </c>
       <c r="AK5" s="4" t="s">
         <v>2</v>
@@ -11128,40 +11152,40 @@
         <v>1</v>
       </c>
       <c r="Z9" s="6">
-        <f xml:space="preserve"> (B9 * N9 * 60) / 1000</f>
-        <v>37.720199999999998</v>
+        <f xml:space="preserve"> (B9 * N9 * 60) / 3600</f>
+        <v>10.477833333333333</v>
       </c>
       <c r="AA9" s="6">
-        <f t="shared" ref="AA9:AA10" si="16" xml:space="preserve"> (C9 * O9 * 60) / 1000</f>
-        <v>35.456400000000002</v>
+        <f t="shared" ref="AA9:AA10" si="16" xml:space="preserve"> (C9 * O9 * 60) / 3600</f>
+        <v>9.8490000000000002</v>
       </c>
       <c r="AB9" s="6">
-        <f t="shared" ref="AB9:AB10" si="17" xml:space="preserve"> (D9 * P9 * 60) / 1000</f>
-        <v>36.630000000000003</v>
+        <f t="shared" ref="AB9:AB10" si="17" xml:space="preserve"> (D9 * P9 * 60) / 3600</f>
+        <v>10.175000000000001</v>
       </c>
       <c r="AC9" s="6">
-        <f t="shared" ref="AC9:AC10" si="18" xml:space="preserve"> (E9 * Q9 * 60) / 1000</f>
-        <v>25.589999999999996</v>
+        <f t="shared" ref="AC9:AC10" si="18" xml:space="preserve"> (E9 * Q9 * 60) / 3600</f>
+        <v>7.1083333333333325</v>
       </c>
       <c r="AD9" s="6">
-        <f t="shared" ref="AD9:AD10" si="19" xml:space="preserve"> (F9 * R9 * 60) / 1000</f>
-        <v>31.8</v>
+        <f t="shared" ref="AD9:AD10" si="19" xml:space="preserve"> (F9 * R9 * 60) / 3600</f>
+        <v>8.8333333333333339</v>
       </c>
       <c r="AE9" s="6">
-        <f t="shared" ref="AE9:AE10" si="20" xml:space="preserve"> (G9 * S9 * 60) / 1000</f>
-        <v>31.83</v>
+        <f t="shared" ref="AE9:AE10" si="20" xml:space="preserve"> (G9 * S9 * 60) / 3600</f>
+        <v>8.8416666666666668</v>
       </c>
       <c r="AF9" s="6">
-        <f t="shared" ref="AF9:AF10" si="21" xml:space="preserve"> (H9 * T9 * 60) / 1000</f>
-        <v>31.89</v>
+        <f t="shared" ref="AF9:AF10" si="21" xml:space="preserve"> (H9 * T9 * 60) / 3600</f>
+        <v>8.8583333333333325</v>
       </c>
       <c r="AG9" s="6">
-        <f t="shared" ref="AG9:AG10" si="22" xml:space="preserve"> (I9 * U9 * 60) / 1000</f>
-        <v>31.83</v>
+        <f t="shared" ref="AG9:AG10" si="22" xml:space="preserve"> (I9 * U9 * 60) / 3600</f>
+        <v>8.8416666666666668</v>
       </c>
       <c r="AH9" s="6">
-        <f t="shared" ref="AH9:AH10" si="23" xml:space="preserve"> (J9 * V9 * 60) / 1000</f>
-        <v>31.89</v>
+        <f t="shared" ref="AH9:AH10" si="23" xml:space="preserve"> (J9 * V9 * 60) / 3600</f>
+        <v>8.8583333333333325</v>
       </c>
       <c r="AK9" s="3" t="s">
         <v>1</v>
@@ -11268,40 +11292,40 @@
         <v>2</v>
       </c>
       <c r="Z10" s="6">
-        <f xml:space="preserve"> (B10 * N10 * 60) / 1000</f>
-        <v>47.839199999999998</v>
+        <f xml:space="preserve"> (B10 * N10 * 60) / 3600</f>
+        <v>13.288666666666666</v>
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="16"/>
-        <v>24.768000000000001</v>
+        <v>6.88</v>
       </c>
       <c r="AB10" s="6">
         <f t="shared" si="17"/>
-        <v>14.839199999999998</v>
+        <v>4.1219999999999999</v>
       </c>
       <c r="AC10" s="6">
         <f t="shared" si="18"/>
-        <v>16.629600000000003</v>
+        <v>4.6193333333333335</v>
       </c>
       <c r="AD10" s="6">
         <f t="shared" si="19"/>
-        <v>12.247199999999999</v>
+        <v>3.4019999999999997</v>
       </c>
       <c r="AE10" s="6">
         <f t="shared" si="20"/>
-        <v>9.48</v>
+        <v>2.6333333333333333</v>
       </c>
       <c r="AF10" s="6">
         <f t="shared" si="21"/>
-        <v>11.606399999999999</v>
+        <v>3.2239999999999998</v>
       </c>
       <c r="AG10" s="6">
         <f t="shared" si="22"/>
-        <v>15.713999999999999</v>
+        <v>4.3649999999999993</v>
       </c>
       <c r="AH10" s="6">
         <f t="shared" si="23"/>
-        <v>12.24</v>
+        <v>3.4</v>
       </c>
       <c r="AK10" s="4" t="s">
         <v>2</v>
@@ -11624,40 +11648,40 @@
         <v>1</v>
       </c>
       <c r="Z14" s="6">
-        <f xml:space="preserve"> (B14 * N14 * 60) / 1000</f>
-        <v>39.893999999999998</v>
+        <f xml:space="preserve"> (B14 * N14 * 60) / 3600</f>
+        <v>11.081666666666667</v>
       </c>
       <c r="AA14" s="6">
-        <f t="shared" ref="AA14:AA15" si="31" xml:space="preserve"> (C14 * O14 * 60) / 1000</f>
-        <v>36.453600000000009</v>
+        <f t="shared" ref="AA14:AA15" si="31" xml:space="preserve"> (C14 * O14 * 60) / 3600</f>
+        <v>10.126000000000001</v>
       </c>
       <c r="AB14" s="6">
-        <f t="shared" ref="AB14:AB15" si="32" xml:space="preserve"> (D14 * P14 * 60) / 1000</f>
-        <v>28.32</v>
+        <f t="shared" ref="AB14:AB15" si="32" xml:space="preserve"> (D14 * P14 * 60) / 3600</f>
+        <v>7.8666666666666663</v>
       </c>
       <c r="AC14" s="6">
-        <f t="shared" ref="AC14:AC15" si="33" xml:space="preserve"> (E14 * Q14 * 60) / 1000</f>
-        <v>20.638200000000001</v>
+        <f t="shared" ref="AC14:AC15" si="33" xml:space="preserve"> (E14 * Q14 * 60) / 3600</f>
+        <v>5.7328333333333337</v>
       </c>
       <c r="AD14" s="6">
-        <f t="shared" ref="AD14:AD15" si="34" xml:space="preserve"> (F14 * R14 * 60) / 1000</f>
-        <v>32.076000000000001</v>
+        <f t="shared" ref="AD14:AD15" si="34" xml:space="preserve"> (F14 * R14 * 60) / 3600</f>
+        <v>8.91</v>
       </c>
       <c r="AE14" s="6">
-        <f t="shared" ref="AE14:AE15" si="35" xml:space="preserve"> (G14 * S14 * 60) / 1000</f>
-        <v>32.436</v>
+        <f t="shared" ref="AE14:AE15" si="35" xml:space="preserve"> (G14 * S14 * 60) / 3600</f>
+        <v>9.01</v>
       </c>
       <c r="AF14" s="6">
-        <f t="shared" ref="AF14:AF15" si="36" xml:space="preserve"> (H14 * T14 * 60) / 1000</f>
-        <v>30.635999999999996</v>
+        <f t="shared" ref="AF14:AF15" si="36" xml:space="preserve"> (H14 * T14 * 60) / 3600</f>
+        <v>8.51</v>
       </c>
       <c r="AG14" s="6">
-        <f t="shared" ref="AG14:AG15" si="37" xml:space="preserve"> (I14 * U14 * 60) / 1000</f>
-        <v>31.716000000000001</v>
+        <f t="shared" ref="AG14:AG15" si="37" xml:space="preserve"> (I14 * U14 * 60) / 3600</f>
+        <v>8.81</v>
       </c>
       <c r="AH14" s="6">
-        <f t="shared" ref="AH14:AH15" si="38" xml:space="preserve"> (J14 * V14 * 60) / 1000</f>
-        <v>31.14</v>
+        <f t="shared" ref="AH14:AH15" si="38" xml:space="preserve"> (J14 * V14 * 60) / 3600</f>
+        <v>8.65</v>
       </c>
       <c r="AK14" s="3" t="s">
         <v>1</v>
@@ -11764,40 +11788,40 @@
         <v>2</v>
       </c>
       <c r="Z15" s="6">
-        <f xml:space="preserve"> (B15 * N15 * 60) / 1000</f>
-        <v>47.913600000000002</v>
+        <f xml:space="preserve"> (B15 * N15 * 60) / 3600</f>
+        <v>13.309333333333335</v>
       </c>
       <c r="AA15" s="6">
         <f t="shared" si="31"/>
-        <v>23.942400000000003</v>
+        <v>6.6506666666666669</v>
       </c>
       <c r="AB15" s="6">
         <f t="shared" si="32"/>
-        <v>14.952000000000002</v>
+        <v>4.1533333333333342</v>
       </c>
       <c r="AC15" s="6">
         <f t="shared" si="33"/>
-        <v>16.5564</v>
+        <v>4.5990000000000002</v>
       </c>
       <c r="AD15" s="6">
         <f t="shared" si="34"/>
-        <v>13.77</v>
+        <v>3.8250000000000002</v>
       </c>
       <c r="AE15" s="6">
         <f t="shared" si="35"/>
-        <v>14.882999999999997</v>
+        <v>4.1341666666666663</v>
       </c>
       <c r="AF15" s="6">
         <f t="shared" si="36"/>
-        <v>12.948</v>
+        <v>3.5966666666666667</v>
       </c>
       <c r="AG15" s="6">
         <f t="shared" si="37"/>
-        <v>13.86</v>
+        <v>3.85</v>
       </c>
       <c r="AH15" s="6">
         <f t="shared" si="38"/>
-        <v>11.25</v>
+        <v>3.125</v>
       </c>
       <c r="AK15" s="4" t="s">
         <v>2</v>
@@ -12120,40 +12144,40 @@
         <v>1</v>
       </c>
       <c r="Z19" s="6">
-        <f xml:space="preserve"> (B19 * N19 * 60) / 1000</f>
-        <v>45.167399999999994</v>
+        <f xml:space="preserve"> (B19 * N19 * 60) / 3600</f>
+        <v>12.546499999999998</v>
       </c>
       <c r="AA19" s="6">
-        <f t="shared" ref="AA19:AA20" si="46" xml:space="preserve"> (C19 * O19 * 60) / 1000</f>
-        <v>30.87</v>
+        <f t="shared" ref="AA19:AA20" si="46" xml:space="preserve"> (C19 * O19 * 60) / 3600</f>
+        <v>8.5749999999999993</v>
       </c>
       <c r="AB19" s="6">
-        <f t="shared" ref="AB19:AB20" si="47" xml:space="preserve"> (D19 * P19 * 60) / 1000</f>
-        <v>21.129600000000003</v>
+        <f t="shared" ref="AB19:AB20" si="47" xml:space="preserve"> (D19 * P19 * 60) / 3600</f>
+        <v>5.8693333333333335</v>
       </c>
       <c r="AC19" s="6">
-        <f t="shared" ref="AC19:AC20" si="48" xml:space="preserve"> (E19 * Q19 * 60) / 1000</f>
-        <v>28.669800000000002</v>
+        <f t="shared" ref="AC19:AC20" si="48" xml:space="preserve"> (E19 * Q19 * 60) / 3600</f>
+        <v>7.9638333333333344</v>
       </c>
       <c r="AD19" s="6">
-        <f t="shared" ref="AD19:AD20" si="49" xml:space="preserve"> (F19 * R19 * 60) / 1000</f>
-        <v>27.69</v>
+        <f t="shared" ref="AD19:AD20" si="49" xml:space="preserve"> (F19 * R19 * 60) / 3600</f>
+        <v>7.6916666666666664</v>
       </c>
       <c r="AE19" s="6">
-        <f t="shared" ref="AE19:AE20" si="50" xml:space="preserve"> (G19 * S19 * 60) / 1000</f>
-        <v>30.283199999999997</v>
+        <f t="shared" ref="AE19:AE20" si="50" xml:space="preserve"> (G19 * S19 * 60) / 3600</f>
+        <v>8.411999999999999</v>
       </c>
       <c r="AF19" s="6">
-        <f t="shared" ref="AF19:AF20" si="51" xml:space="preserve"> (H19 * T19 * 60) / 1000</f>
-        <v>28.339200000000002</v>
+        <f t="shared" ref="AF19:AF20" si="51" xml:space="preserve"> (H19 * T19 * 60) / 3600</f>
+        <v>7.8719999999999999</v>
       </c>
       <c r="AG19" s="6">
-        <f t="shared" ref="AG19:AG20" si="52" xml:space="preserve"> (I19 * U19 * 60) / 1000</f>
-        <v>30.002999999999997</v>
+        <f t="shared" ref="AG19:AG20" si="52" xml:space="preserve"> (I19 * U19 * 60) / 3600</f>
+        <v>8.3341666666666665</v>
       </c>
       <c r="AH19" s="6">
-        <f t="shared" ref="AH19:AH20" si="53" xml:space="preserve"> (J19 * V19 * 60) / 1000</f>
-        <v>29.127000000000002</v>
+        <f t="shared" ref="AH19:AH20" si="53" xml:space="preserve"> (J19 * V19 * 60) / 3600</f>
+        <v>8.0908333333333342</v>
       </c>
       <c r="AK19" s="3" t="s">
         <v>1</v>
@@ -12260,40 +12284,40 @@
         <v>2</v>
       </c>
       <c r="Z20" s="6">
-        <f xml:space="preserve"> (B20 * N20 * 60) / 1000</f>
-        <v>47.913600000000002</v>
+        <f xml:space="preserve"> (B20 * N20 * 60) / 3600</f>
+        <v>13.309333333333335</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" si="46"/>
-        <v>28.26</v>
+        <v>7.85</v>
       </c>
       <c r="AB20" s="6">
         <f t="shared" si="47"/>
-        <v>22.5</v>
+        <v>6.25</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" si="48"/>
-        <v>12.8688</v>
+        <v>3.5746666666666669</v>
       </c>
       <c r="AD20" s="6">
         <f t="shared" si="49"/>
-        <v>16.235999999999997</v>
+        <v>4.51</v>
       </c>
       <c r="AE20" s="6">
         <f t="shared" si="50"/>
-        <v>13.176000000000002</v>
+        <v>3.6600000000000006</v>
       </c>
       <c r="AF20" s="6">
         <f t="shared" si="51"/>
-        <v>14.894400000000001</v>
+        <v>4.1373333333333333</v>
       </c>
       <c r="AG20" s="6">
         <f t="shared" si="52"/>
-        <v>14.6508</v>
+        <v>4.0696666666666665</v>
       </c>
       <c r="AH20" s="6">
         <f t="shared" si="53"/>
-        <v>12.18</v>
+        <v>3.3833333333333333</v>
       </c>
       <c r="AK20" s="4" t="s">
         <v>2</v>
@@ -12616,40 +12640,40 @@
         <v>1</v>
       </c>
       <c r="Z24" s="6">
-        <f xml:space="preserve"> (B24 * N24 * 60) / 1000</f>
-        <v>43.480800000000002</v>
+        <f xml:space="preserve"> (B24 * N24 * 60) / 3600</f>
+        <v>12.078000000000001</v>
       </c>
       <c r="AA24" s="6">
-        <f t="shared" ref="AA24:AA25" si="61" xml:space="preserve"> (C24 * O24 * 60) / 1000</f>
-        <v>25.2</v>
+        <f t="shared" ref="AA24:AA25" si="61" xml:space="preserve"> (C24 * O24 * 60) / 3600</f>
+        <v>7</v>
       </c>
       <c r="AB24" s="6">
-        <f t="shared" ref="AB24:AB25" si="62" xml:space="preserve"> (D24 * P24 * 60) / 1000</f>
-        <v>21.129600000000003</v>
+        <f t="shared" ref="AB24:AB25" si="62" xml:space="preserve"> (D24 * P24 * 60) / 3600</f>
+        <v>5.8693333333333335</v>
       </c>
       <c r="AC24" s="6">
-        <f t="shared" ref="AC24:AC25" si="63" xml:space="preserve"> (E24 * Q24 * 60) / 1000</f>
-        <v>28.243800000000004</v>
+        <f t="shared" ref="AC24:AC25" si="63" xml:space="preserve"> (E24 * Q24 * 60) / 3600</f>
+        <v>7.8455000000000013</v>
       </c>
       <c r="AD24" s="6">
-        <f t="shared" ref="AD24:AD25" si="64" xml:space="preserve"> (F24 * R24 * 60) / 1000</f>
-        <v>28.857599999999998</v>
+        <f t="shared" ref="AD24:AD25" si="64" xml:space="preserve"> (F24 * R24 * 60) / 3600</f>
+        <v>8.016</v>
       </c>
       <c r="AE24" s="6">
-        <f t="shared" ref="AE24:AE25" si="65" xml:space="preserve"> (G24 * S24 * 60) / 1000</f>
-        <v>28.209600000000002</v>
+        <f t="shared" ref="AE24:AE25" si="65" xml:space="preserve"> (G24 * S24 * 60) / 3600</f>
+        <v>7.8360000000000003</v>
       </c>
       <c r="AF24" s="6">
-        <f t="shared" ref="AF24:AF25" si="66" xml:space="preserve"> (H24 * T24 * 60) / 1000</f>
-        <v>29.721600000000002</v>
+        <f t="shared" ref="AF24:AF25" si="66" xml:space="preserve"> (H24 * T24 * 60) / 3600</f>
+        <v>8.2560000000000002</v>
       </c>
       <c r="AG24" s="6">
-        <f t="shared" ref="AG24:AG25" si="67" xml:space="preserve"> (I24 * U24 * 60) / 1000</f>
-        <v>27.993600000000001</v>
+        <f t="shared" ref="AG24:AG25" si="67" xml:space="preserve"> (I24 * U24 * 60) / 3600</f>
+        <v>7.7760000000000007</v>
       </c>
       <c r="AH24" s="6">
-        <f t="shared" ref="AH24:AH25" si="68" xml:space="preserve"> (J24 * V24 * 60) / 1000</f>
-        <v>29.375999999999998</v>
+        <f t="shared" ref="AH24:AH25" si="68" xml:space="preserve"> (J24 * V24 * 60) / 3600</f>
+        <v>8.1599999999999984</v>
       </c>
       <c r="AK24" s="3" t="s">
         <v>1</v>
@@ -12756,40 +12780,40 @@
         <v>2</v>
       </c>
       <c r="Z25" s="6">
-        <f xml:space="preserve"> (B25 * N25 * 60) / 1000</f>
-        <v>48.025199999999998</v>
+        <f xml:space="preserve"> (B25 * N25 * 60) / 3600</f>
+        <v>13.340333333333332</v>
       </c>
       <c r="AA25" s="6">
         <f t="shared" si="61"/>
-        <v>25.308</v>
+        <v>7.03</v>
       </c>
       <c r="AB25" s="6">
         <f t="shared" si="62"/>
-        <v>17.052000000000003</v>
+        <v>4.7366666666666672</v>
       </c>
       <c r="AC25" s="6">
         <f t="shared" si="63"/>
-        <v>13.036799999999999</v>
+        <v>3.6213333333333333</v>
       </c>
       <c r="AD25" s="6">
         <f t="shared" si="64"/>
-        <v>13.478400000000001</v>
+        <v>3.7440000000000002</v>
       </c>
       <c r="AE25" s="6">
         <f t="shared" si="65"/>
-        <v>11.826000000000001</v>
+        <v>3.2850000000000001</v>
       </c>
       <c r="AF25" s="6">
         <f t="shared" si="66"/>
-        <v>11.592000000000002</v>
+        <v>3.2200000000000006</v>
       </c>
       <c r="AG25" s="6">
         <f t="shared" si="67"/>
-        <v>13.932</v>
+        <v>3.87</v>
       </c>
       <c r="AH25" s="6">
         <f t="shared" si="68"/>
-        <v>8.5500000000000007</v>
+        <v>2.375</v>
       </c>
       <c r="AK25" s="4" t="s">
         <v>2</v>
@@ -13112,40 +13136,40 @@
         <v>1</v>
       </c>
       <c r="Z29" s="6">
-        <f xml:space="preserve"> (B29 * N29 * 60) / 1000</f>
-        <v>43.938600000000001</v>
+        <f xml:space="preserve"> (B29 * N29 * 60) / 3600</f>
+        <v>12.205166666666667</v>
       </c>
       <c r="AA29" s="6">
-        <f t="shared" ref="AA29:AA30" si="76" xml:space="preserve"> (C29 * O29 * 60) / 1000</f>
-        <v>31.225799999999996</v>
+        <f t="shared" ref="AA29:AA30" si="76" xml:space="preserve"> (C29 * O29 * 60) / 3600</f>
+        <v>8.6738333333333326</v>
       </c>
       <c r="AB29" s="6">
-        <f t="shared" ref="AB29:AB30" si="77" xml:space="preserve"> (D29 * P29 * 60) / 1000</f>
-        <v>19.655999999999995</v>
+        <f t="shared" ref="AB29:AB30" si="77" xml:space="preserve"> (D29 * P29 * 60) / 3600</f>
+        <v>5.4599999999999991</v>
       </c>
       <c r="AC29" s="6">
-        <f t="shared" ref="AC29:AC30" si="78" xml:space="preserve"> (E29 * Q29 * 60) / 1000</f>
-        <v>21.513600000000004</v>
+        <f t="shared" ref="AC29:AC30" si="78" xml:space="preserve"> (E29 * Q29 * 60) / 3600</f>
+        <v>5.9760000000000009</v>
       </c>
       <c r="AD29" s="6">
-        <f t="shared" ref="AD29:AD30" si="79" xml:space="preserve"> (F29 * R29 * 60) / 1000</f>
-        <v>28.123199999999997</v>
+        <f t="shared" ref="AD29:AD30" si="79" xml:space="preserve"> (F29 * R29 * 60) / 3600</f>
+        <v>7.8119999999999994</v>
       </c>
       <c r="AE29" s="6">
-        <f t="shared" ref="AE29:AE30" si="80" xml:space="preserve"> (G29 * S29 * 60) / 1000</f>
-        <v>27.864000000000004</v>
+        <f t="shared" ref="AE29:AE30" si="80" xml:space="preserve"> (G29 * S29 * 60) / 3600</f>
+        <v>7.7400000000000011</v>
       </c>
       <c r="AF29" s="6">
-        <f t="shared" ref="AF29:AF30" si="81" xml:space="preserve"> (H29 * T29 * 60) / 1000</f>
-        <v>27.345599999999997</v>
+        <f t="shared" ref="AF29:AF30" si="81" xml:space="preserve"> (H29 * T29 * 60) / 3600</f>
+        <v>7.5959999999999992</v>
       </c>
       <c r="AG29" s="6">
-        <f t="shared" ref="AG29:AG30" si="82" xml:space="preserve"> (I29 * U29 * 60) / 1000</f>
-        <v>29.073600000000003</v>
+        <f t="shared" ref="AG29:AG30" si="82" xml:space="preserve"> (I29 * U29 * 60) / 3600</f>
+        <v>8.0760000000000005</v>
       </c>
       <c r="AH29" s="6">
-        <f t="shared" ref="AH29:AH30" si="83" xml:space="preserve"> (J29 * V29 * 60) / 1000</f>
-        <v>23.038799999999998</v>
+        <f t="shared" ref="AH29:AH30" si="83" xml:space="preserve"> (J29 * V29 * 60) / 3600</f>
+        <v>6.3996666666666666</v>
       </c>
       <c r="AK29" s="3" t="s">
         <v>1</v>
@@ -13252,40 +13276,40 @@
         <v>2</v>
       </c>
       <c r="Z30" s="6">
-        <f xml:space="preserve"> (B30 * N30 * 60) / 1000</f>
-        <v>47.140800000000006</v>
+        <f xml:space="preserve"> (B30 * N30 * 60) / 3600</f>
+        <v>13.094666666666667</v>
       </c>
       <c r="AA30" s="6">
         <f t="shared" si="76"/>
-        <v>26.04</v>
+        <v>7.2333333333333334</v>
       </c>
       <c r="AB30" s="6">
         <f t="shared" si="77"/>
-        <v>15.220800000000001</v>
+        <v>4.2280000000000006</v>
       </c>
       <c r="AC30" s="6">
         <f t="shared" si="78"/>
-        <v>16.038</v>
+        <v>4.4550000000000001</v>
       </c>
       <c r="AD30" s="6">
         <f t="shared" si="79"/>
-        <v>12.7296</v>
+        <v>3.536</v>
       </c>
       <c r="AE30" s="6">
         <f t="shared" si="80"/>
-        <v>13.122</v>
+        <v>3.645</v>
       </c>
       <c r="AF30" s="6">
         <f t="shared" si="81"/>
-        <v>14.029199999999999</v>
+        <v>3.8969999999999998</v>
       </c>
       <c r="AG30" s="6">
         <f t="shared" si="82"/>
-        <v>13.876799999999999</v>
+        <v>3.8546666666666667</v>
       </c>
       <c r="AH30" s="6">
         <f t="shared" si="83"/>
-        <v>13.478400000000001</v>
+        <v>3.7440000000000002</v>
       </c>
       <c r="AK30" s="4" t="s">
         <v>2</v>
@@ -13608,40 +13632,40 @@
         <v>1</v>
       </c>
       <c r="Z34" s="6">
-        <f xml:space="preserve"> (B34 * N34 * 60) / 1000</f>
-        <v>43.938600000000001</v>
+        <f xml:space="preserve"> (B34 * N34 * 60) / 3600</f>
+        <v>12.205166666666667</v>
       </c>
       <c r="AA34" s="6">
-        <f t="shared" ref="AA34:AA35" si="91" xml:space="preserve"> (C34 * O34 * 60) / 1000</f>
-        <v>30.786000000000001</v>
+        <f t="shared" ref="AA34:AA35" si="91" xml:space="preserve"> (C34 * O34 * 60) / 3600</f>
+        <v>8.5516666666666659</v>
       </c>
       <c r="AB34" s="6">
-        <f t="shared" ref="AB34:AB35" si="92" xml:space="preserve"> (D34 * P34 * 60) / 1000</f>
-        <v>21.297599999999999</v>
+        <f t="shared" ref="AB34:AB35" si="92" xml:space="preserve"> (D34 * P34 * 60) / 3600</f>
+        <v>5.9159999999999995</v>
       </c>
       <c r="AC34" s="6">
-        <f t="shared" ref="AC34:AC35" si="93" xml:space="preserve"> (E34 * Q34 * 60) / 1000</f>
-        <v>23.457599999999999</v>
+        <f t="shared" ref="AC34:AC35" si="93" xml:space="preserve"> (E34 * Q34 * 60) / 3600</f>
+        <v>6.516</v>
       </c>
       <c r="AD34" s="6">
-        <f t="shared" ref="AD34:AD35" si="94" xml:space="preserve"> (F34 * R34 * 60) / 1000</f>
-        <v>29.203199999999995</v>
+        <f t="shared" ref="AD34:AD35" si="94" xml:space="preserve"> (F34 * R34 * 60) / 3600</f>
+        <v>8.1119999999999983</v>
       </c>
       <c r="AE34" s="6">
-        <f t="shared" ref="AE34:AE35" si="95" xml:space="preserve"> (G34 * S34 * 60) / 1000</f>
-        <v>29.127000000000002</v>
+        <f t="shared" ref="AE34:AE35" si="95" xml:space="preserve"> (G34 * S34 * 60) / 3600</f>
+        <v>8.0908333333333342</v>
       </c>
       <c r="AF34" s="6">
-        <f t="shared" ref="AF34:AF35" si="96" xml:space="preserve"> (H34 * T34 * 60) / 1000</f>
-        <v>26.913600000000002</v>
+        <f t="shared" ref="AF34:AF35" si="96" xml:space="preserve"> (H34 * T34 * 60) / 3600</f>
+        <v>7.4760000000000009</v>
       </c>
       <c r="AG34" s="6">
-        <f t="shared" ref="AG34:AG35" si="97" xml:space="preserve"> (I34 * U34 * 60) / 1000</f>
-        <v>27.341999999999999</v>
+        <f t="shared" ref="AG34:AG35" si="97" xml:space="preserve"> (I34 * U34 * 60) / 3600</f>
+        <v>7.5949999999999998</v>
       </c>
       <c r="AH34" s="6">
-        <f t="shared" ref="AH34:AH35" si="98" xml:space="preserve"> (J34 * V34 * 60) / 1000</f>
-        <v>23.855999999999998</v>
+        <f t="shared" ref="AH34:AH35" si="98" xml:space="preserve"> (J34 * V34 * 60) / 3600</f>
+        <v>6.626666666666666</v>
       </c>
       <c r="AK34" s="3" t="s">
         <v>1</v>
@@ -13748,40 +13772,40 @@
         <v>2</v>
       </c>
       <c r="Z35" s="6">
-        <f xml:space="preserve"> (B35 * N35 * 60) / 1000</f>
-        <v>46.44</v>
+        <f xml:space="preserve"> (B35 * N35 * 60) / 3600</f>
+        <v>12.9</v>
       </c>
       <c r="AA35" s="6">
         <f t="shared" si="91"/>
-        <v>24.768000000000001</v>
+        <v>6.88</v>
       </c>
       <c r="AB35" s="6">
         <f t="shared" si="92"/>
-        <v>12.8688</v>
+        <v>3.5746666666666669</v>
       </c>
       <c r="AC35" s="6">
         <f t="shared" si="93"/>
-        <v>13.932</v>
+        <v>3.87</v>
       </c>
       <c r="AD35" s="6">
         <f t="shared" si="94"/>
-        <v>14.839199999999998</v>
+        <v>4.1219999999999999</v>
       </c>
       <c r="AE35" s="6">
         <f t="shared" si="95"/>
-        <v>14.58</v>
+        <v>4.05</v>
       </c>
       <c r="AF35" s="6">
         <f t="shared" si="96"/>
-        <v>14.742000000000001</v>
+        <v>4.0949999999999998</v>
       </c>
       <c r="AG35" s="6">
         <f t="shared" si="97"/>
-        <v>12.903</v>
+        <v>3.5841666666666665</v>
       </c>
       <c r="AH35" s="6">
         <f t="shared" si="98"/>
-        <v>9.3960000000000008</v>
+        <v>2.61</v>
       </c>
       <c r="AK35" s="4" t="s">
         <v>2</v>
@@ -14104,40 +14128,40 @@
         <v>1</v>
       </c>
       <c r="Z39" s="6">
-        <f xml:space="preserve"> (B39 * N39 * 60) / 1000</f>
-        <v>45.332999999999998</v>
+        <f xml:space="preserve"> (B39 * N39 * 60) / 3600</f>
+        <v>12.592499999999999</v>
       </c>
       <c r="AA39" s="6">
-        <f t="shared" ref="AA39:AA40" si="106" xml:space="preserve"> (C39 * O39 * 60) / 1000</f>
-        <v>30.786000000000001</v>
+        <f t="shared" ref="AA39:AA40" si="106" xml:space="preserve"> (C39 * O39 * 60) / 3600</f>
+        <v>8.5516666666666659</v>
       </c>
       <c r="AB39" s="6">
-        <f t="shared" ref="AB39:AB40" si="107" xml:space="preserve"> (D39 * P39 * 60) / 1000</f>
-        <v>19.137599999999999</v>
+        <f t="shared" ref="AB39:AB40" si="107" xml:space="preserve"> (D39 * P39 * 60) / 3600</f>
+        <v>5.3159999999999998</v>
       </c>
       <c r="AC39" s="6">
-        <f t="shared" ref="AC39:AC40" si="108" xml:space="preserve"> (E39 * Q39 * 60) / 1000</f>
-        <v>24.192</v>
+        <f t="shared" ref="AC39:AC40" si="108" xml:space="preserve"> (E39 * Q39 * 60) / 3600</f>
+        <v>6.72</v>
       </c>
       <c r="AD39" s="6">
-        <f t="shared" ref="AD39:AD40" si="109" xml:space="preserve"> (F39 * R39 * 60) / 1000</f>
-        <v>26.752800000000001</v>
+        <f t="shared" ref="AD39:AD40" si="109" xml:space="preserve"> (F39 * R39 * 60) / 3600</f>
+        <v>7.4313333333333329</v>
       </c>
       <c r="AE39" s="6">
-        <f t="shared" ref="AE39:AE40" si="110" xml:space="preserve"> (G39 * S39 * 60) / 1000</f>
-        <v>29.16</v>
+        <f t="shared" ref="AE39:AE40" si="110" xml:space="preserve"> (G39 * S39 * 60) / 3600</f>
+        <v>8.1</v>
       </c>
       <c r="AF39" s="6">
-        <f t="shared" ref="AF39:AF40" si="111" xml:space="preserve"> (H39 * T39 * 60) / 1000</f>
-        <v>27.561600000000002</v>
+        <f t="shared" ref="AF39:AF40" si="111" xml:space="preserve"> (H39 * T39 * 60) / 3600</f>
+        <v>7.6560000000000006</v>
       </c>
       <c r="AG39" s="6">
-        <f t="shared" ref="AG39:AG40" si="112" xml:space="preserve"> (I39 * U39 * 60) / 1000</f>
-        <v>27.9072</v>
+        <f t="shared" ref="AG39:AG40" si="112" xml:space="preserve"> (I39 * U39 * 60) / 3600</f>
+        <v>7.7519999999999998</v>
       </c>
       <c r="AH39" s="6">
-        <f t="shared" ref="AH39:AH40" si="113" xml:space="preserve"> (J39 * V39 * 60) / 1000</f>
-        <v>23.544000000000004</v>
+        <f t="shared" ref="AH39:AH40" si="113" xml:space="preserve"> (J39 * V39 * 60) / 3600</f>
+        <v>6.5400000000000009</v>
       </c>
       <c r="AK39" s="3" t="s">
         <v>1</v>
@@ -14244,40 +14268,40 @@
         <v>2</v>
       </c>
       <c r="Z40" s="6">
-        <f xml:space="preserve"> (B40 * N40 * 60) / 1000</f>
-        <v>46.44</v>
+        <f xml:space="preserve"> (B40 * N40 * 60) / 3600</f>
+        <v>12.9</v>
       </c>
       <c r="AA40" s="6">
         <f t="shared" si="106"/>
-        <v>24.284400000000002</v>
+        <v>6.7456666666666667</v>
       </c>
       <c r="AB40" s="6">
         <f t="shared" si="107"/>
-        <v>11.664</v>
+        <v>3.24</v>
       </c>
       <c r="AC40" s="6">
         <f t="shared" si="108"/>
-        <v>9.9791999999999987</v>
+        <v>2.7719999999999998</v>
       </c>
       <c r="AD40" s="6">
         <f t="shared" si="109"/>
-        <v>13.3812</v>
+        <v>3.7169999999999996</v>
       </c>
       <c r="AE40" s="6">
         <f t="shared" si="110"/>
-        <v>12.948</v>
+        <v>3.5966666666666667</v>
       </c>
       <c r="AF40" s="6">
         <f t="shared" si="111"/>
-        <v>14.151000000000002</v>
+        <v>3.9308333333333336</v>
       </c>
       <c r="AG40" s="6">
         <f t="shared" si="112"/>
-        <v>11.9496</v>
+        <v>3.3193333333333332</v>
       </c>
       <c r="AH40" s="6">
         <f t="shared" si="113"/>
-        <v>11.2104</v>
+        <v>3.1139999999999999</v>
       </c>
       <c r="AK40" s="4" t="s">
         <v>2</v>
